--- a/defect_category_2.xlsx
+++ b/defect_category_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SDET_CODE\share_doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\hyoyeon.hwang\SDET\share_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,9 +27,9 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="23" r:id="rId9"/>
-    <pivotCache cacheId="4" r:id="rId10"/>
-    <pivotCache cacheId="24" r:id="rId11"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
+    <pivotCache cacheId="1" r:id="rId10"/>
+    <pivotCache cacheId="2" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1678,7 +1678,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1736,11 +1735,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="231107800"/>
-        <c:axId val="231108184"/>
+        <c:axId val="299242016"/>
+        <c:axId val="299242576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="231107800"/>
+        <c:axId val="299242016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1783,7 +1782,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231108184"/>
+        <c:crossAx val="299242576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1791,7 +1790,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="231108184"/>
+        <c:axId val="299242576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1842,7 +1841,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231107800"/>
+        <c:crossAx val="299242016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1981,11 +1980,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="231047672"/>
-        <c:axId val="231183952"/>
+        <c:axId val="299276144"/>
+        <c:axId val="299276704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="231047672"/>
+        <c:axId val="299276144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2028,7 +2027,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231183952"/>
+        <c:crossAx val="299276704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2036,7 +2035,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="231183952"/>
+        <c:axId val="299276704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2087,7 +2086,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231047672"/>
+        <c:crossAx val="299276144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2221,7 +2220,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2358,7 +2356,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2441,11 +2438,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="475850856"/>
-        <c:axId val="455891368"/>
+        <c:axId val="299279504"/>
+        <c:axId val="299475712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="475850856"/>
+        <c:axId val="299279504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2488,7 +2485,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455891368"/>
+        <c:crossAx val="299475712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2496,7 +2493,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="455891368"/>
+        <c:axId val="299475712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2547,7 +2544,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475850856"/>
+        <c:crossAx val="299279504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2561,7 +2558,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2690,9 +2686,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2711,9 +2705,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -2755,7 +2747,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2854,9 +2845,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2875,9 +2864,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2896,9 +2883,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2917,9 +2902,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2938,9 +2921,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -2982,7 +2963,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3090,9 +3070,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3111,9 +3089,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3132,9 +3108,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3153,9 +3127,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3174,9 +3146,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -3218,7 +3188,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3296,11 +3265,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="488826000"/>
-        <c:axId val="488830312"/>
+        <c:axId val="300287328"/>
+        <c:axId val="300287888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="488826000"/>
+        <c:axId val="300287328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3343,7 +3312,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488830312"/>
+        <c:crossAx val="300287888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3351,7 +3320,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="488830312"/>
+        <c:axId val="300287888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3402,7 +3371,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488826000"/>
+        <c:crossAx val="300287328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3416,7 +3385,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3584,11 +3552,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="488830704"/>
-        <c:axId val="488825216"/>
+        <c:axId val="300290688"/>
+        <c:axId val="299826320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="488830704"/>
+        <c:axId val="300290688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3631,7 +3599,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488825216"/>
+        <c:crossAx val="299826320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3639,7 +3607,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="488825216"/>
+        <c:axId val="299826320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3690,7 +3658,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488830704"/>
+        <c:crossAx val="300290688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3834,7 +3802,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3893,11 +3860,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="453035888"/>
-        <c:axId val="453040592"/>
+        <c:axId val="299828560"/>
+        <c:axId val="299829120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="453035888"/>
+        <c:axId val="299828560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3940,7 +3907,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453040592"/>
+        <c:crossAx val="299829120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3948,7 +3915,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="453040592"/>
+        <c:axId val="299829120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3999,7 +3966,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453035888"/>
+        <c:crossAx val="299828560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4133,7 +4100,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4193,11 +4159,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="482007368"/>
-        <c:axId val="482008152"/>
+        <c:axId val="299919216"/>
+        <c:axId val="299919776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="482007368"/>
+        <c:axId val="299919216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4240,7 +4206,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482008152"/>
+        <c:crossAx val="299919776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4248,7 +4214,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="482008152"/>
+        <c:axId val="299919776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4299,7 +4265,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482007368"/>
+        <c:crossAx val="299919216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4433,7 +4399,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4493,11 +4458,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="577695640"/>
-        <c:axId val="577694856"/>
+        <c:axId val="300998928"/>
+        <c:axId val="300999488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="577695640"/>
+        <c:axId val="300998928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4540,7 +4505,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="577694856"/>
+        <c:crossAx val="300999488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4548,7 +4513,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="577694856"/>
+        <c:axId val="300999488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4599,7 +4564,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="577695640"/>
+        <c:crossAx val="300998928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4733,7 +4698,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4799,11 +4763,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="231410208"/>
-        <c:axId val="231409816"/>
+        <c:axId val="301001728"/>
+        <c:axId val="301002288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="231410208"/>
+        <c:axId val="301001728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4846,7 +4810,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231409816"/>
+        <c:crossAx val="301002288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4854,7 +4818,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="231409816"/>
+        <c:axId val="301002288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4905,7 +4869,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231410208"/>
+        <c:crossAx val="301001728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12116,7 +12080,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -12165,7 +12129,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블2" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:H9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -12248,7 +12212,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블11" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블11" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -12305,7 +12269,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -13289,7 +13253,7 @@
   <dimension ref="A1:M206"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D209" sqref="D209"/>
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14677,7 +14641,7 @@
         <v>136</v>
       </c>
       <c r="G40" t="s">
-        <v>373</v>
+        <v>169</v>
       </c>
       <c r="H40" t="s">
         <v>161</v>
@@ -14712,7 +14676,7 @@
         <v>136</v>
       </c>
       <c r="G41" t="s">
-        <v>373</v>
+        <v>169</v>
       </c>
       <c r="H41" t="s">
         <v>161</v>
@@ -14782,7 +14746,7 @@
         <v>168</v>
       </c>
       <c r="G43" t="s">
-        <v>374</v>
+        <v>169</v>
       </c>
       <c r="H43" t="s">
         <v>161</v>
@@ -14817,7 +14781,7 @@
         <v>168</v>
       </c>
       <c r="G44" t="s">
-        <v>374</v>
+        <v>169</v>
       </c>
       <c r="H44" t="s">
         <v>161</v>

--- a/defect_category_2.xlsx
+++ b/defect_category_2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\hyoyeon.hwang\SDET\share_doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SDET_CODE\share_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9345" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9345" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="15" r:id="rId1"/>
@@ -27,9 +27,9 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId9"/>
-    <pivotCache cacheId="1" r:id="rId10"/>
-    <pivotCache cacheId="2" r:id="rId11"/>
+    <pivotCache cacheId="23" r:id="rId9"/>
+    <pivotCache cacheId="4" r:id="rId10"/>
+    <pivotCache cacheId="24" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2772" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2756" uniqueCount="410">
   <si>
     <t>SonarQube</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1317,10 +1317,6 @@
   </si>
   <si>
     <t>Defects</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Critical</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1678,6 +1674,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1735,11 +1732,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="299242016"/>
-        <c:axId val="299242576"/>
+        <c:axId val="231107800"/>
+        <c:axId val="231108184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="299242016"/>
+        <c:axId val="231107800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1782,7 +1779,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299242576"/>
+        <c:crossAx val="231108184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1790,7 +1787,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="299242576"/>
+        <c:axId val="231108184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1841,7 +1838,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299242016"/>
+        <c:crossAx val="231107800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1980,11 +1977,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="299276144"/>
-        <c:axId val="299276704"/>
+        <c:axId val="231047672"/>
+        <c:axId val="231183952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="299276144"/>
+        <c:axId val="231047672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2027,7 +2024,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299276704"/>
+        <c:crossAx val="231183952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2035,7 +2032,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="299276704"/>
+        <c:axId val="231183952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2086,7 +2083,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299276144"/>
+        <c:crossAx val="231047672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2220,6 +2217,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2356,6 +2354,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2438,11 +2437,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="299279504"/>
-        <c:axId val="299475712"/>
+        <c:axId val="475850856"/>
+        <c:axId val="455891368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="299279504"/>
+        <c:axId val="475850856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2485,7 +2484,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299475712"/>
+        <c:crossAx val="455891368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2493,7 +2492,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="299475712"/>
+        <c:axId val="455891368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2544,7 +2543,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299279504"/>
+        <c:crossAx val="475850856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2558,6 +2557,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2686,7 +2686,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2705,7 +2707,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -2747,6 +2751,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2845,7 +2850,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2864,7 +2871,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2883,7 +2892,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2902,7 +2913,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2921,7 +2934,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -2963,6 +2978,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3070,7 +3086,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3089,7 +3107,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3108,7 +3128,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3127,7 +3149,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3146,7 +3170,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -3188,6 +3214,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3265,11 +3292,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="300287328"/>
-        <c:axId val="300287888"/>
+        <c:axId val="488826000"/>
+        <c:axId val="488830312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="300287328"/>
+        <c:axId val="488826000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3312,7 +3339,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300287888"/>
+        <c:crossAx val="488830312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3320,7 +3347,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="300287888"/>
+        <c:axId val="488830312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3371,7 +3398,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300287328"/>
+        <c:crossAx val="488826000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3385,6 +3412,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3552,11 +3580,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="300290688"/>
-        <c:axId val="299826320"/>
+        <c:axId val="488830704"/>
+        <c:axId val="488825216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="300290688"/>
+        <c:axId val="488830704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3599,7 +3627,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299826320"/>
+        <c:crossAx val="488825216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3607,7 +3635,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="299826320"/>
+        <c:axId val="488825216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3658,7 +3686,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300290688"/>
+        <c:crossAx val="488830704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3802,6 +3830,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3860,11 +3889,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="299828560"/>
-        <c:axId val="299829120"/>
+        <c:axId val="453035888"/>
+        <c:axId val="453040592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="299828560"/>
+        <c:axId val="453035888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3907,7 +3936,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299829120"/>
+        <c:crossAx val="453040592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3915,7 +3944,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="299829120"/>
+        <c:axId val="453040592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3966,910 +3995,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299828560"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet5!$F$28</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Defects</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ko-KR"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet5!$E$29:$E$30</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Critical</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Major</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet5!$F$29:$F$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="299919216"/>
-        <c:axId val="299919776"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="299919216"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="299919776"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="299919776"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="299919216"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet5!$F$40</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Defects</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ko-KR"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet5!$E$41:$E$42</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Major</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Minor</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet5!$F$41:$F$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="300998928"/>
-        <c:axId val="300999488"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="300998928"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="300999488"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="300999488"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="300998928"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet5!$F$50</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Defects</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ko-KR"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet5!$E$51:$E$53</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Critical</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Major</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Minor</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet5!$F$51:$F$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>31</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="301001728"/>
-        <c:axId val="301002288"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="301001728"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="301002288"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="301002288"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="301001728"/>
+        <c:crossAx val="453035888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5119,126 +4245,6 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8304,1515 +7310,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -10005,96 +7502,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>195262</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="차트 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="차트 4"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="차트 5"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12080,7 +9487,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -12129,7 +9536,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블2" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:H9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -12212,7 +9619,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블11" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블11" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -12269,7 +9676,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -12596,7 +10003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -12728,7 +10135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="D31" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="D16" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -13035,10 +10442,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="P48" sqref="P48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13145,101 +10552,6 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E27" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="28" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E28" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="29" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E29" s="14" t="s">
-        <v>410</v>
-      </c>
-      <c r="F29" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E30" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="F30" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E39" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E40" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E41" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="F41" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E42" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="F42" s="15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E49" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="50" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E50" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="51" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E51" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="F51" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E52" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="F52" s="15">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E53" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="F53" s="15">
-        <v>31</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13249,11 +10561,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:M206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13312,7 +10623,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>158</v>
       </c>
@@ -13344,7 +10655,7 @@
         <v>43313.69027777778</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>158</v>
       </c>
@@ -13376,7 +10687,7 @@
         <v>43313.69027777778</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>158</v>
       </c>
@@ -13411,7 +10722,7 @@
         <v>43309.468055555553</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>158</v>
       </c>
@@ -13443,7 +10754,7 @@
         <v>43313.689583333333</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>158</v>
       </c>
@@ -13478,7 +10789,7 @@
         <v>43313.689583333333</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>158</v>
       </c>
@@ -13513,7 +10824,7 @@
         <v>43313.689583333333</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>158</v>
       </c>
@@ -13548,7 +10859,7 @@
         <v>43313.536805555559</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>158</v>
       </c>
@@ -13583,7 +10894,7 @@
         <v>43313.536805555559</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>158</v>
       </c>
@@ -13618,7 +10929,7 @@
         <v>43313.536805555559</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>158</v>
       </c>
@@ -13653,7 +10964,7 @@
         <v>43313.536805555559</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>158</v>
       </c>
@@ -13688,7 +10999,7 @@
         <v>43313.579861111109</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>158</v>
       </c>
@@ -13720,7 +11031,7 @@
         <v>43313.689583333333</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>158</v>
       </c>
@@ -13752,7 +11063,7 @@
         <v>43313.689583333333</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>158</v>
       </c>
@@ -13787,7 +11098,7 @@
         <v>43309.468055555553</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>158</v>
       </c>
@@ -13822,7 +11133,7 @@
         <v>43313.579861111109</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>158</v>
       </c>
@@ -13857,7 +11168,7 @@
         <v>43313.579861111109</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>158</v>
       </c>
@@ -13892,7 +11203,7 @@
         <v>43313.579861111109</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>158</v>
       </c>
@@ -13927,7 +11238,7 @@
         <v>43313.579861111109</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>158</v>
       </c>
@@ -13962,7 +11273,7 @@
         <v>43313.579861111109</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>158</v>
       </c>
@@ -13997,7 +11308,7 @@
         <v>43313.579861111109</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>158</v>
       </c>
@@ -14032,7 +11343,7 @@
         <v>43313.579861111109</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>158</v>
       </c>
@@ -14067,7 +11378,7 @@
         <v>43313.579861111109</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>158</v>
       </c>
@@ -14102,7 +11413,7 @@
         <v>43313.578472222223</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>158</v>
       </c>
@@ -14137,7 +11448,7 @@
         <v>43309.46875</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>158</v>
       </c>
@@ -14172,7 +11483,7 @@
         <v>43313.688888888886</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>158</v>
       </c>
@@ -14207,7 +11518,7 @@
         <v>43309.474999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>158</v>
       </c>
@@ -14242,7 +11553,7 @@
         <v>43309.474999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>158</v>
       </c>
@@ -14277,7 +11588,7 @@
         <v>43309.474999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>158</v>
       </c>
@@ -14312,7 +11623,7 @@
         <v>43309.475694444445</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>158</v>
       </c>
@@ -14344,7 +11655,7 @@
         <v>43309.680555555555</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>158</v>
       </c>
@@ -14411,7 +11722,7 @@
         <v>43311.59375</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>158</v>
       </c>
@@ -14446,7 +11757,7 @@
         <v>43310.92291666667</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>158</v>
       </c>
@@ -14481,7 +11792,7 @@
         <v>43311.411111111112</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>158</v>
       </c>
@@ -14516,7 +11827,7 @@
         <v>43311.411111111112</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>158</v>
       </c>
@@ -14551,7 +11862,7 @@
         <v>43311.411111111112</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>158</v>
       </c>
@@ -14586,7 +11897,7 @@
         <v>43311.916666666664</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>158</v>
       </c>
@@ -14641,7 +11952,7 @@
         <v>136</v>
       </c>
       <c r="G40" t="s">
-        <v>169</v>
+        <v>373</v>
       </c>
       <c r="H40" t="s">
         <v>161</v>
@@ -14676,7 +11987,7 @@
         <v>136</v>
       </c>
       <c r="G41" t="s">
-        <v>169</v>
+        <v>373</v>
       </c>
       <c r="H41" t="s">
         <v>161</v>
@@ -14746,7 +12057,7 @@
         <v>168</v>
       </c>
       <c r="G43" t="s">
-        <v>169</v>
+        <v>374</v>
       </c>
       <c r="H43" t="s">
         <v>161</v>
@@ -14781,7 +12092,7 @@
         <v>168</v>
       </c>
       <c r="G44" t="s">
-        <v>169</v>
+        <v>374</v>
       </c>
       <c r="H44" t="s">
         <v>161</v>
@@ -14796,7 +12107,7 @@
         <v>43313.449305555558</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>158</v>
       </c>
@@ -14831,7 +12142,7 @@
         <v>43313.686805555553</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>158</v>
       </c>
@@ -14866,7 +12177,7 @@
         <v>43313.686111111114</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>158</v>
       </c>
@@ -14898,7 +12209,7 @@
         <v>43313.686111111114</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>158</v>
       </c>
@@ -14933,7 +12244,7 @@
         <v>43313.685416666667</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>158</v>
       </c>
@@ -14968,7 +12279,7 @@
         <v>43313.685416666667</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>158</v>
       </c>
@@ -15003,7 +12314,7 @@
         <v>43313.542361111111</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>158</v>
       </c>
@@ -15035,7 +12346,7 @@
         <v>43313.544444444444</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>158</v>
       </c>
@@ -15067,7 +12378,7 @@
         <v>43313.488888888889</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>158</v>
       </c>
@@ -15099,7 +12410,7 @@
         <v>43313.545138888891</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>158</v>
       </c>
@@ -15131,7 +12442,7 @@
         <v>43313.365277777775</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>158</v>
       </c>
@@ -15163,7 +12474,7 @@
         <v>43313.368055555555</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>158</v>
       </c>
@@ -15195,7 +12506,7 @@
         <v>43313.371527777781</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>158</v>
       </c>
@@ -15230,7 +12541,7 @@
         <v>43309.459027777775</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>158</v>
       </c>
@@ -15262,7 +12573,7 @@
         <v>43313.373611111114</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>158</v>
       </c>
@@ -15294,7 +12605,7 @@
         <v>43313.46875</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>158</v>
       </c>
@@ -15326,7 +12637,7 @@
         <v>43313.46875</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>158</v>
       </c>
@@ -15358,7 +12669,7 @@
         <v>43313.46875</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>158</v>
       </c>
@@ -15390,7 +12701,7 @@
         <v>43313.68472222222</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>158</v>
       </c>
@@ -15460,7 +12771,7 @@
         <v>43313.53402777778</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>158</v>
       </c>
@@ -15492,7 +12803,7 @@
         <v>43313.628472222219</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>158</v>
       </c>
@@ -15527,7 +12838,7 @@
         <v>43313.68472222222</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>158</v>
       </c>
@@ -15559,7 +12870,7 @@
         <v>43313.68472222222</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>158</v>
       </c>
@@ -15594,7 +12905,7 @@
         <v>43313.692361111112</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>158</v>
       </c>
@@ -15629,7 +12940,7 @@
         <v>43313.68472222222</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>158</v>
       </c>
@@ -15664,7 +12975,7 @@
         <v>43309.455555555556</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>158</v>
       </c>
@@ -15699,7 +13010,7 @@
         <v>43309.456944444442</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>158</v>
       </c>
@@ -15734,7 +13045,7 @@
         <v>43313.692361111112</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>158</v>
       </c>
@@ -15769,7 +13080,7 @@
         <v>43309.459722222222</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>158</v>
       </c>
@@ -15804,7 +13115,7 @@
         <v>43309.460416666669</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>158</v>
       </c>
@@ -15839,7 +13150,7 @@
         <v>43313.691666666666</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>158</v>
       </c>
@@ -15874,7 +13185,7 @@
         <v>43313.691666666666</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>158</v>
       </c>
@@ -15909,7 +13220,7 @@
         <v>43313.691666666666</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>158</v>
       </c>
@@ -15944,7 +13255,7 @@
         <v>43313.691666666666</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>158</v>
       </c>
@@ -15979,7 +13290,7 @@
         <v>43309.694444444445</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>158</v>
       </c>
@@ -16014,7 +13325,7 @@
         <v>43309.46597222222</v>
       </c>
     </row>
-    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>158</v>
       </c>
@@ -16049,7 +13360,7 @@
         <v>43309.466666666667</v>
       </c>
     </row>
-    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>158</v>
       </c>
@@ -16084,7 +13395,7 @@
         <v>43309.664583333331</v>
       </c>
     </row>
-    <row r="83" spans="1:13" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>158</v>
       </c>
@@ -16121,7 +13432,7 @@
       <c r="L83"/>
       <c r="M83"/>
     </row>
-    <row r="84" spans="1:13" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>158</v>
       </c>
@@ -16158,7 +13469,7 @@
       <c r="L84"/>
       <c r="M84"/>
     </row>
-    <row r="85" spans="1:13" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>158</v>
       </c>
@@ -16195,7 +13506,7 @@
       <c r="L85"/>
       <c r="M85"/>
     </row>
-    <row r="86" spans="1:13" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>158</v>
       </c>
@@ -16232,7 +13543,7 @@
       <c r="L86"/>
       <c r="M86"/>
     </row>
-    <row r="87" spans="1:13" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>158</v>
       </c>
@@ -16269,7 +13580,7 @@
       <c r="L87"/>
       <c r="M87"/>
     </row>
-    <row r="88" spans="1:13" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>158</v>
       </c>
@@ -16306,7 +13617,7 @@
       <c r="L88"/>
       <c r="M88"/>
     </row>
-    <row r="89" spans="1:13" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>158</v>
       </c>
@@ -16343,7 +13654,7 @@
       <c r="L89"/>
       <c r="M89"/>
     </row>
-    <row r="90" spans="1:13" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>158</v>
       </c>
@@ -16380,7 +13691,7 @@
       <c r="L90"/>
       <c r="M90"/>
     </row>
-    <row r="91" spans="1:13" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>158</v>
       </c>
@@ -16417,7 +13728,7 @@
       <c r="L91"/>
       <c r="M91"/>
     </row>
-    <row r="92" spans="1:13" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>158</v>
       </c>
@@ -16454,7 +13765,7 @@
       <c r="L92"/>
       <c r="M92"/>
     </row>
-    <row r="93" spans="1:13" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>158</v>
       </c>
@@ -16491,7 +13802,7 @@
       <c r="L93"/>
       <c r="M93"/>
     </row>
-    <row r="94" spans="1:13" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>158</v>
       </c>
@@ -16526,7 +13837,7 @@
       <c r="L94"/>
       <c r="M94"/>
     </row>
-    <row r="95" spans="1:13" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>158</v>
       </c>
@@ -16561,7 +13872,7 @@
       <c r="L95"/>
       <c r="M95"/>
     </row>
-    <row r="96" spans="1:13" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" s="10" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>158</v>
       </c>
@@ -16598,7 +13909,7 @@
       <c r="L96"/>
       <c r="M96"/>
     </row>
-    <row r="97" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="7" t="s">
         <v>4</v>
       </c>
@@ -16612,7 +13923,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="7" t="s">
         <v>6</v>
       </c>
@@ -16626,7 +13937,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="7" t="s">
         <v>6</v>
       </c>
@@ -16640,7 +13951,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="7" t="s">
         <v>6</v>
       </c>
@@ -16654,7 +13965,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="8" t="s">
         <v>217</v>
       </c>
@@ -16668,7 +13979,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
         <v>6</v>
       </c>
@@ -16682,7 +13993,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
         <v>11</v>
       </c>
@@ -16696,7 +14007,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="8" t="s">
         <v>217</v>
       </c>
@@ -16710,7 +14021,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
         <v>4</v>
       </c>
@@ -16724,7 +14035,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
         <v>15</v>
       </c>
@@ -16738,7 +14049,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
         <v>4</v>
       </c>
@@ -16752,7 +14063,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="7" t="s">
         <v>218</v>
       </c>
@@ -16766,7 +14077,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="7" t="s">
         <v>218</v>
       </c>
@@ -16780,7 +14091,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="7" t="s">
         <v>218</v>
       </c>
@@ -16794,7 +14105,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="7" t="s">
         <v>8</v>
       </c>
@@ -16808,7 +14119,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="7" t="s">
         <v>6</v>
       </c>
@@ -16822,7 +14133,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="7" t="s">
         <v>6</v>
       </c>
@@ -16836,7 +14147,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="7" t="s">
         <v>6</v>
       </c>
@@ -16850,7 +14161,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="7" t="s">
         <v>18</v>
       </c>
@@ -16864,7 +14175,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="7" t="s">
         <v>6</v>
       </c>
@@ -16878,7 +14189,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="7" t="s">
         <v>20</v>
       </c>
@@ -16892,7 +14203,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="7" t="s">
         <v>220</v>
       </c>
@@ -16906,7 +14217,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="8" t="s">
         <v>217</v>
       </c>
@@ -16920,7 +14231,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="7" t="s">
         <v>6</v>
       </c>
@@ -16934,7 +14245,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="7" t="s">
         <v>6</v>
       </c>
@@ -16948,7 +14259,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
         <v>8</v>
       </c>
@@ -16962,7 +14273,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="7" t="s">
         <v>4</v>
       </c>
@@ -16976,7 +14287,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="7" t="s">
         <v>30</v>
       </c>
@@ -16990,7 +14301,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="8" t="s">
         <v>217</v>
       </c>
@@ -17004,7 +14315,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="7" t="s">
         <v>4</v>
       </c>
@@ -17018,7 +14329,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="8" t="s">
         <v>217</v>
       </c>
@@ -17032,7 +14343,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="7" t="s">
         <v>6</v>
       </c>
@@ -17046,7 +14357,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="8" t="s">
         <v>217</v>
       </c>
@@ -17060,7 +14371,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="7" t="s">
         <v>218</v>
       </c>
@@ -17074,7 +14385,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="7" t="s">
         <v>39</v>
       </c>
@@ -17088,7 +14399,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="7" t="s">
         <v>11</v>
       </c>
@@ -17102,7 +14413,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="7" t="s">
         <v>6</v>
       </c>
@@ -17116,7 +14427,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="7" t="s">
         <v>39</v>
       </c>
@@ -17130,7 +14441,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="7" t="s">
         <v>6</v>
       </c>
@@ -17144,7 +14455,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="7" t="s">
         <v>39</v>
       </c>
@@ -17158,7 +14469,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="7" t="s">
         <v>39</v>
       </c>
@@ -17172,7 +14483,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="7" t="s">
         <v>4</v>
       </c>
@@ -17186,7 +14497,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="7" t="s">
         <v>6</v>
       </c>
@@ -17200,7 +14511,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="7" t="s">
         <v>39</v>
       </c>
@@ -17214,7 +14525,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="7" t="s">
         <v>39</v>
       </c>
@@ -17228,7 +14539,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="7" t="s">
         <v>6</v>
       </c>
@@ -17242,7 +14553,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="7" t="s">
         <v>39</v>
       </c>
@@ -17256,7 +14567,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="7" t="s">
         <v>6</v>
       </c>
@@ -17270,7 +14581,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="7" t="s">
         <v>39</v>
       </c>
@@ -17284,7 +14595,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="7" t="s">
         <v>39</v>
       </c>
@@ -17298,7 +14609,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="7" t="s">
         <v>39</v>
       </c>
@@ -17312,7 +14623,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="7" t="s">
         <v>39</v>
       </c>
@@ -17326,7 +14637,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="7" t="s">
         <v>39</v>
       </c>
@@ -17340,7 +14651,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="7" t="s">
         <v>39</v>
       </c>
@@ -17354,7 +14665,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="7" t="s">
         <v>39</v>
       </c>
@@ -17368,7 +14679,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="7" t="s">
         <v>39</v>
       </c>
@@ -17382,7 +14693,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="7" t="s">
         <v>6</v>
       </c>
@@ -17396,7 +14707,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="7" t="s">
         <v>6</v>
       </c>
@@ -17410,7 +14721,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="7" t="s">
         <v>4</v>
       </c>
@@ -17424,7 +14735,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="7" t="s">
         <v>6</v>
       </c>
@@ -17438,7 +14749,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="7" t="s">
         <v>6</v>
       </c>
@@ -17452,7 +14763,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="7" t="s">
         <v>30</v>
       </c>
@@ -17466,7 +14777,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="7" t="s">
         <v>6</v>
       </c>
@@ -17480,7 +14791,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="7" t="s">
         <v>18</v>
       </c>
@@ -17494,7 +14805,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="7" t="s">
         <v>20</v>
       </c>
@@ -17508,7 +14819,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="7" t="s">
         <v>220</v>
       </c>
@@ -17522,7 +14833,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="7" t="s">
         <v>22</v>
       </c>
@@ -17536,7 +14847,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="7" t="s">
         <v>4</v>
       </c>
@@ -17550,7 +14861,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="7" t="s">
         <v>4</v>
       </c>
@@ -17564,7 +14875,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="7" t="s">
         <v>4</v>
       </c>
@@ -17578,7 +14889,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="7" t="s">
         <v>18</v>
       </c>
@@ -17592,7 +14903,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="7" t="s">
         <v>4</v>
       </c>
@@ -17606,7 +14917,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="7" t="s">
         <v>4</v>
       </c>
@@ -17620,7 +14931,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="7" t="s">
         <v>4</v>
       </c>
@@ -17634,7 +14945,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="7" t="s">
         <v>4</v>
       </c>
@@ -17648,7 +14959,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="7" t="s">
         <v>6</v>
       </c>
@@ -17662,7 +14973,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="7" t="s">
         <v>4</v>
       </c>
@@ -17676,7 +14987,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="7" t="s">
         <v>4</v>
       </c>
@@ -17690,7 +15001,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="7" t="s">
         <v>4</v>
       </c>
@@ -17704,7 +15015,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="7" t="s">
         <v>4</v>
       </c>
@@ -17718,7 +15029,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="7" t="s">
         <v>4</v>
       </c>
@@ -17732,7 +15043,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="7" t="s">
         <v>4</v>
       </c>
@@ -17746,7 +15057,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="7" t="s">
         <v>4</v>
       </c>
@@ -17760,7 +15071,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="7" t="s">
         <v>4</v>
       </c>
@@ -17774,7 +15085,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="7" t="s">
         <v>39</v>
       </c>
@@ -17788,7 +15099,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="7" t="s">
         <v>39</v>
       </c>
@@ -17802,7 +15113,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="7" t="s">
         <v>39</v>
       </c>
@@ -17816,7 +15127,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="7" t="s">
         <v>39</v>
       </c>
@@ -17830,7 +15141,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="7" t="s">
         <v>39</v>
       </c>
@@ -17844,7 +15155,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="7" t="s">
         <v>6</v>
       </c>
@@ -17858,7 +15169,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="7" t="s">
         <v>39</v>
       </c>
@@ -17872,7 +15183,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="7" t="s">
         <v>39</v>
       </c>
@@ -17886,7 +15197,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="7" t="s">
         <v>4</v>
       </c>
@@ -17900,7 +15211,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="8" t="s">
         <v>217</v>
       </c>
@@ -17914,7 +15225,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="8" t="s">
         <v>217</v>
       </c>
@@ -17928,7 +15239,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="7" t="s">
         <v>6</v>
       </c>
@@ -17942,7 +15253,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="7" t="s">
         <v>4</v>
       </c>
@@ -17956,7 +15267,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="7" t="s">
         <v>4</v>
       </c>
@@ -17970,7 +15281,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="7" t="s">
         <v>39</v>
       </c>
@@ -17984,7 +15295,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="7" t="s">
         <v>39</v>
       </c>
@@ -17998,7 +15309,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="7" t="s">
         <v>39</v>
       </c>
@@ -18012,7 +15323,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="17.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="7" t="s">
         <v>39</v>
       </c>
@@ -18026,7 +15337,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="19.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="7" t="s">
         <v>39</v>
       </c>
@@ -18040,7 +15351,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="7" t="s">
         <v>18</v>
       </c>
@@ -18054,7 +15365,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="7" t="s">
         <v>39</v>
       </c>
@@ -18068,7 +15379,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="7" t="s">
         <v>39</v>
       </c>
@@ -18082,7 +15393,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="7" t="s">
         <v>4</v>
       </c>
@@ -18096,7 +15407,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="7" t="s">
         <v>39</v>
       </c>
@@ -18110,7 +15421,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="7" t="s">
         <v>39</v>
       </c>
@@ -18124,7 +15435,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="7" t="s">
         <v>39</v>
       </c>
@@ -18139,13 +15450,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M206">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="INTEGRATION_TEST_DEFECT"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:M206"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/defect_category_2.xlsx
+++ b/defect_category_2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SDET_CODE\share_doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\share_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9345" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9345" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="15" r:id="rId1"/>
@@ -23,13 +23,13 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Code Review'!$B$3:$I$113</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">통합!$A$1:$M$206</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">통합!$A$1:$M$209</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="23" r:id="rId9"/>
-    <pivotCache cacheId="4" r:id="rId10"/>
-    <pivotCache cacheId="24" r:id="rId11"/>
+    <pivotCache cacheId="12" r:id="rId9"/>
+    <pivotCache cacheId="13" r:id="rId10"/>
+    <pivotCache cacheId="14" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2756" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2777" uniqueCount="416">
   <si>
     <t>SonarQube</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1318,6 +1318,24 @@
   <si>
     <t>Defects</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDET-201</t>
+  </si>
+  <si>
+    <t>[Defect] network game - "javax.crypto.IllegalBlockSizeException" error</t>
+  </si>
+  <si>
+    <t>SDET-202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Defect] save/load : point cal error - elevator game 6point save -&gt; continue game. 8 point -&gt; load game score 14 </t>
+  </si>
+  <si>
+    <t>SDET-203</t>
+  </si>
+  <si>
+    <t>[Defect] save/load : rooms visit information error.  - at load time, current room is in room visited.</t>
   </si>
 </sst>
 </file>
@@ -1492,7 +1510,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1553,6 +1571,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1732,11 +1756,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="231107800"/>
-        <c:axId val="231108184"/>
+        <c:axId val="388866056"/>
+        <c:axId val="388866448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="231107800"/>
+        <c:axId val="388866056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1779,7 +1803,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231108184"/>
+        <c:crossAx val="388866448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1787,7 +1811,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="231108184"/>
+        <c:axId val="388866448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1838,7 +1862,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231107800"/>
+        <c:crossAx val="388866056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1977,11 +2001,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="231047672"/>
-        <c:axId val="231183952"/>
+        <c:axId val="442611848"/>
+        <c:axId val="442612240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="231047672"/>
+        <c:axId val="442611848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2024,7 +2048,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231183952"/>
+        <c:crossAx val="442612240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2032,7 +2056,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="231183952"/>
+        <c:axId val="442612240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2083,7 +2107,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231047672"/>
+        <c:crossAx val="442611848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2217,7 +2241,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2354,7 +2377,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2437,11 +2459,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="475850856"/>
-        <c:axId val="455891368"/>
+        <c:axId val="442613024"/>
+        <c:axId val="442613416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="475850856"/>
+        <c:axId val="442613024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2484,7 +2506,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455891368"/>
+        <c:crossAx val="442613416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2492,7 +2514,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="455891368"/>
+        <c:axId val="442613416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2543,7 +2565,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475850856"/>
+        <c:crossAx val="442613024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2557,7 +2579,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2686,9 +2707,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2707,9 +2726,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -2751,7 +2768,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2850,9 +2866,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2871,9 +2885,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2892,9 +2904,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2913,9 +2923,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2934,9 +2942,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -2978,7 +2984,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3086,9 +3091,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3107,9 +3110,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3128,9 +3129,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3149,9 +3148,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3170,9 +3167,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -3214,7 +3209,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3292,11 +3286,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="488826000"/>
-        <c:axId val="488830312"/>
+        <c:axId val="442614200"/>
+        <c:axId val="442614592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="488826000"/>
+        <c:axId val="442614200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3339,7 +3333,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488830312"/>
+        <c:crossAx val="442614592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3347,7 +3341,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="488830312"/>
+        <c:axId val="442614592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3398,7 +3392,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488826000"/>
+        <c:crossAx val="442614200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3412,7 +3406,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3580,11 +3573,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="488830704"/>
-        <c:axId val="488825216"/>
+        <c:axId val="440318040"/>
+        <c:axId val="440318432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="488830704"/>
+        <c:axId val="440318040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3627,7 +3620,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488825216"/>
+        <c:crossAx val="440318432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3635,7 +3628,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="488825216"/>
+        <c:axId val="440318432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3686,7 +3679,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488830704"/>
+        <c:crossAx val="440318040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3889,11 +3882,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="453035888"/>
-        <c:axId val="453040592"/>
+        <c:axId val="440319216"/>
+        <c:axId val="440319608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="453035888"/>
+        <c:axId val="440319216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3936,7 +3929,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453040592"/>
+        <c:crossAx val="440319608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3944,7 +3937,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="453040592"/>
+        <c:axId val="440319608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3995,7 +3988,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453035888"/>
+        <c:crossAx val="440319216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9487,7 +9480,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -9536,7 +9529,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블2" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블2" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:H9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -9619,7 +9612,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블11" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블11" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -9676,7 +9669,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -10444,7 +10437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -10561,10 +10554,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M206"/>
+  <dimension ref="A1:M209"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N70" sqref="N70:N72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12905,7 +12898,7 @@
         <v>43313.692361111112</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>158</v>
       </c>
@@ -12940,109 +12933,100 @@
         <v>43313.68472222222</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+    <row r="70" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="22" t="s">
         <v>158</v>
       </c>
       <c r="B70" t="s">
-        <v>173</v>
+        <v>410</v>
       </c>
       <c r="C70">
-        <v>10020</v>
-      </c>
-      <c r="D70" t="s">
-        <v>174</v>
+        <v>10200</v>
+      </c>
+      <c r="D70" s="22" t="s">
+        <v>411</v>
       </c>
       <c r="E70" t="s">
-        <v>172</v>
-      </c>
-      <c r="F70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="G70" t="s">
-        <v>374</v>
-      </c>
-      <c r="H70" t="s">
+      <c r="G70" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="H70" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="I70" t="s">
-        <v>162</v>
-      </c>
       <c r="J70" s="4">
-        <v>43294.71597222222</v>
+        <v>43313.8</v>
       </c>
       <c r="K70" s="4">
-        <v>43309.455555555556</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+        <v>43313.8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="22" t="s">
         <v>158</v>
       </c>
       <c r="B71" t="s">
-        <v>175</v>
+        <v>412</v>
       </c>
       <c r="C71">
-        <v>10021</v>
-      </c>
-      <c r="D71" t="s">
-        <v>176</v>
+        <v>10201</v>
+      </c>
+      <c r="D71" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="E71" t="s">
-        <v>172</v>
-      </c>
-      <c r="F71" t="s">
+        <v>168</v>
+      </c>
+      <c r="F71" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="G71" t="s">
-        <v>373</v>
-      </c>
-      <c r="H71" t="s">
+      <c r="G71" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="H71" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="I71" t="s">
-        <v>162</v>
-      </c>
       <c r="J71" s="4">
-        <v>43294.722222222219</v>
+        <v>43313.820138888892</v>
       </c>
       <c r="K71" s="4">
-        <v>43309.456944444442</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+        <v>43313.820138888892</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="22" t="s">
         <v>158</v>
       </c>
       <c r="B72" t="s">
-        <v>202</v>
+        <v>414</v>
       </c>
       <c r="C72">
-        <v>10022</v>
-      </c>
-      <c r="D72" t="s">
-        <v>203</v>
+        <v>10202</v>
+      </c>
+      <c r="D72" s="22" t="s">
+        <v>415</v>
       </c>
       <c r="E72" t="s">
+        <v>168</v>
+      </c>
+      <c r="F72" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="F72" t="s">
-        <v>195</v>
-      </c>
-      <c r="G72" t="s">
-        <v>374</v>
-      </c>
-      <c r="H72" t="s">
+      <c r="G72" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="H72" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="I72" t="s">
-        <v>162</v>
-      </c>
       <c r="J72" s="4">
-        <v>43294.723611111112</v>
+        <v>43313.831250000003</v>
       </c>
       <c r="K72" s="4">
-        <v>43313.692361111112</v>
+        <v>43313.831250000003</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -13050,16 +13034,16 @@
         <v>158</v>
       </c>
       <c r="B73" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C73">
-        <v>10023</v>
+        <v>10020</v>
       </c>
       <c r="D73" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E73" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F73" t="s">
         <v>195</v>
@@ -13074,10 +13058,10 @@
         <v>162</v>
       </c>
       <c r="J73" s="4">
-        <v>43297.338194444441</v>
+        <v>43294.71597222222</v>
       </c>
       <c r="K73" s="4">
-        <v>43309.459722222222</v>
+        <v>43309.455555555556</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -13085,13 +13069,13 @@
         <v>158</v>
       </c>
       <c r="B74" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C74">
-        <v>10024</v>
+        <v>10021</v>
       </c>
       <c r="D74" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E74" t="s">
         <v>172</v>
@@ -13100,7 +13084,7 @@
         <v>195</v>
       </c>
       <c r="G74" t="s">
-        <v>169</v>
+        <v>373</v>
       </c>
       <c r="H74" t="s">
         <v>165</v>
@@ -13109,10 +13093,10 @@
         <v>162</v>
       </c>
       <c r="J74" s="4">
-        <v>43297.347916666666</v>
+        <v>43294.722222222219</v>
       </c>
       <c r="K74" s="4">
-        <v>43309.460416666669</v>
+        <v>43309.456944444442</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -13120,22 +13104,22 @@
         <v>158</v>
       </c>
       <c r="B75" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="C75">
-        <v>10025</v>
+        <v>10022</v>
       </c>
       <c r="D75" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="E75" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="F75" t="s">
         <v>195</v>
       </c>
       <c r="G75" t="s">
-        <v>169</v>
+        <v>374</v>
       </c>
       <c r="H75" t="s">
         <v>165</v>
@@ -13144,10 +13128,10 @@
         <v>162</v>
       </c>
       <c r="J75" s="4">
-        <v>43297.351388888892</v>
+        <v>43294.723611111112</v>
       </c>
       <c r="K75" s="4">
-        <v>43313.691666666666</v>
+        <v>43313.692361111112</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -13155,22 +13139,22 @@
         <v>158</v>
       </c>
       <c r="B76" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C76">
-        <v>10026</v>
+        <v>10023</v>
       </c>
       <c r="D76" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="E76" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="F76" t="s">
         <v>195</v>
       </c>
       <c r="G76" t="s">
-        <v>169</v>
+        <v>374</v>
       </c>
       <c r="H76" t="s">
         <v>165</v>
@@ -13179,10 +13163,10 @@
         <v>162</v>
       </c>
       <c r="J76" s="4">
-        <v>43297.354861111111</v>
+        <v>43297.338194444441</v>
       </c>
       <c r="K76" s="4">
-        <v>43313.691666666666</v>
+        <v>43309.459722222222</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -13190,13 +13174,13 @@
         <v>158</v>
       </c>
       <c r="B77" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C77">
-        <v>10027</v>
+        <v>10024</v>
       </c>
       <c r="D77" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="E77" t="s">
         <v>172</v>
@@ -13214,10 +13198,10 @@
         <v>162</v>
       </c>
       <c r="J77" s="4">
-        <v>43297.365972222222</v>
+        <v>43297.347916666666</v>
       </c>
       <c r="K77" s="4">
-        <v>43313.691666666666</v>
+        <v>43309.460416666669</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
@@ -13225,13 +13209,13 @@
         <v>158</v>
       </c>
       <c r="B78" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C78">
-        <v>10028</v>
+        <v>10025</v>
       </c>
       <c r="D78" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E78" t="s">
         <v>172</v>
@@ -13249,7 +13233,7 @@
         <v>162</v>
       </c>
       <c r="J78" s="4">
-        <v>43297.366666666669</v>
+        <v>43297.351388888892</v>
       </c>
       <c r="K78" s="4">
         <v>43313.691666666666</v>
@@ -13260,22 +13244,22 @@
         <v>158</v>
       </c>
       <c r="B79" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C79">
-        <v>10029</v>
+        <v>10026</v>
       </c>
       <c r="D79" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E79" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="F79" t="s">
         <v>195</v>
       </c>
       <c r="G79" t="s">
-        <v>374</v>
+        <v>169</v>
       </c>
       <c r="H79" t="s">
         <v>165</v>
@@ -13284,10 +13268,10 @@
         <v>162</v>
       </c>
       <c r="J79" s="4">
-        <v>43297.368750000001</v>
+        <v>43297.354861111111</v>
       </c>
       <c r="K79" s="4">
-        <v>43309.694444444445</v>
+        <v>43313.691666666666</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
@@ -13295,22 +13279,22 @@
         <v>158</v>
       </c>
       <c r="B80" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C80">
-        <v>10030</v>
+        <v>10027</v>
       </c>
       <c r="D80" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E80" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="F80" t="s">
         <v>195</v>
       </c>
       <c r="G80" t="s">
-        <v>374</v>
+        <v>169</v>
       </c>
       <c r="H80" t="s">
         <v>165</v>
@@ -13319,10 +13303,10 @@
         <v>162</v>
       </c>
       <c r="J80" s="4">
-        <v>43297.376388888886</v>
+        <v>43297.365972222222</v>
       </c>
       <c r="K80" s="4">
-        <v>43309.46597222222</v>
+        <v>43313.691666666666</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
@@ -13330,22 +13314,22 @@
         <v>158</v>
       </c>
       <c r="B81" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="C81">
-        <v>10031</v>
+        <v>10028</v>
       </c>
       <c r="D81" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="E81" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="F81" t="s">
         <v>195</v>
       </c>
       <c r="G81" t="s">
-        <v>374</v>
+        <v>169</v>
       </c>
       <c r="H81" t="s">
         <v>165</v>
@@ -13354,10 +13338,10 @@
         <v>162</v>
       </c>
       <c r="J81" s="4">
-        <v>43297.379861111112</v>
+        <v>43297.366666666669</v>
       </c>
       <c r="K81" s="4">
-        <v>43309.466666666667</v>
+        <v>43313.691666666666</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
@@ -13365,16 +13349,16 @@
         <v>158</v>
       </c>
       <c r="B82" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C82">
-        <v>10032</v>
+        <v>10029</v>
       </c>
       <c r="D82" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E82" t="s">
-        <v>195</v>
+        <v>136</v>
       </c>
       <c r="F82" t="s">
         <v>195</v>
@@ -13389,156 +13373,150 @@
         <v>162</v>
       </c>
       <c r="J82" s="4">
-        <v>43297.385416666664</v>
+        <v>43297.368750000001</v>
       </c>
       <c r="K82" s="4">
-        <v>43309.664583333331</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
+        <v>43309.694444444445</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>158</v>
       </c>
       <c r="B83" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C83">
-        <v>10033</v>
+        <v>10030</v>
       </c>
       <c r="D83" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E83" t="s">
         <v>195</v>
       </c>
-      <c r="F83" s="3" t="s">
+      <c r="F83" t="s">
         <v>195</v>
       </c>
-      <c r="G83" s="3" t="s">
+      <c r="G83" t="s">
         <v>374</v>
       </c>
-      <c r="H83" s="3" t="s">
+      <c r="H83" t="s">
         <v>165</v>
       </c>
       <c r="I83" t="s">
         <v>162</v>
       </c>
       <c r="J83" s="4">
-        <v>43297.386111111111</v>
+        <v>43297.376388888886</v>
       </c>
       <c r="K83" s="4">
-        <v>43309.466666666667</v>
-      </c>
-      <c r="L83"/>
-      <c r="M83"/>
-    </row>
-    <row r="84" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
+        <v>43309.46597222222</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>158</v>
       </c>
       <c r="B84" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="C84">
-        <v>10045</v>
+        <v>10031</v>
       </c>
       <c r="D84" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="E84" t="s">
-        <v>136</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="G84" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F84" t="s">
+        <v>195</v>
+      </c>
+      <c r="G84" t="s">
         <v>374</v>
       </c>
-      <c r="H84" s="3" t="s">
-        <v>316</v>
+      <c r="H84" t="s">
+        <v>165</v>
       </c>
       <c r="I84" t="s">
         <v>162</v>
       </c>
       <c r="J84" s="4">
-        <v>43299.888194444444</v>
+        <v>43297.379861111112</v>
       </c>
       <c r="K84" s="4">
-        <v>43313.439583333333</v>
-      </c>
-      <c r="L84"/>
-      <c r="M84"/>
-    </row>
-    <row r="85" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
+        <v>43309.466666666667</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>158</v>
       </c>
       <c r="B85" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C85">
-        <v>10046</v>
+        <v>10032</v>
       </c>
       <c r="D85" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E85" t="s">
-        <v>168</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>206</v>
+        <v>195</v>
+      </c>
+      <c r="F85" t="s">
+        <v>195</v>
+      </c>
+      <c r="G85" t="s">
+        <v>374</v>
+      </c>
+      <c r="H85" t="s">
+        <v>165</v>
       </c>
       <c r="I85" t="s">
         <v>162</v>
       </c>
       <c r="J85" s="4">
-        <v>43299.898611111108</v>
+        <v>43297.385416666664</v>
       </c>
       <c r="K85" s="4">
-        <v>43299.957638888889</v>
-      </c>
-      <c r="L85"/>
-      <c r="M85"/>
+        <v>43309.664583333331</v>
+      </c>
     </row>
     <row r="86" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>158</v>
       </c>
       <c r="B86" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="C86">
-        <v>10047</v>
+        <v>10033</v>
       </c>
       <c r="D86" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="E86" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>374</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>206</v>
+        <v>165</v>
       </c>
       <c r="I86" t="s">
         <v>162</v>
       </c>
       <c r="J86" s="4">
-        <v>43299.915972222225</v>
+        <v>43297.386111111111</v>
       </c>
       <c r="K86" s="4">
-        <v>43299.922222222223</v>
+        <v>43309.466666666667</v>
       </c>
       <c r="L86"/>
       <c r="M86"/>
@@ -13548,34 +13526,34 @@
         <v>158</v>
       </c>
       <c r="B87" t="s">
-        <v>209</v>
+        <v>159</v>
       </c>
       <c r="C87">
-        <v>10050</v>
+        <v>10045</v>
       </c>
       <c r="D87" t="s">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="E87" t="s">
         <v>136</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>136</v>
+        <v>315</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>374</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>206</v>
+        <v>316</v>
       </c>
       <c r="I87" t="s">
         <v>162</v>
       </c>
       <c r="J87" s="4">
-        <v>43299.951388888891</v>
+        <v>43299.888194444444</v>
       </c>
       <c r="K87" s="4">
-        <v>43299.95208333333</v>
+        <v>43313.439583333333</v>
       </c>
       <c r="L87"/>
       <c r="M87"/>
@@ -13585,34 +13563,34 @@
         <v>158</v>
       </c>
       <c r="B88" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="C88">
-        <v>10051</v>
+        <v>10046</v>
       </c>
       <c r="D88" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="E88" t="s">
+        <v>168</v>
+      </c>
+      <c r="F88" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>373</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="I88" t="s">
         <v>162</v>
       </c>
       <c r="J88" s="4">
+        <v>43299.898611111108</v>
+      </c>
+      <c r="K88" s="4">
         <v>43299.957638888889</v>
-      </c>
-      <c r="K88" s="4">
-        <v>43304.720833333333</v>
       </c>
       <c r="L88"/>
       <c r="M88"/>
@@ -13622,34 +13600,34 @@
         <v>158</v>
       </c>
       <c r="B89" t="s">
-        <v>166</v>
+        <v>211</v>
       </c>
       <c r="C89">
-        <v>10052</v>
+        <v>10047</v>
       </c>
       <c r="D89" t="s">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="E89" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="I89" t="s">
         <v>162</v>
       </c>
       <c r="J89" s="4">
-        <v>43299.993750000001</v>
+        <v>43299.915972222225</v>
       </c>
       <c r="K89" s="4">
-        <v>43304.724999999999</v>
+        <v>43299.922222222223</v>
       </c>
       <c r="L89"/>
       <c r="M89"/>
@@ -13659,13 +13637,13 @@
         <v>158</v>
       </c>
       <c r="B90" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C90">
-        <v>10053</v>
+        <v>10050</v>
       </c>
       <c r="D90" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E90" t="s">
         <v>136</v>
@@ -13674,7 +13652,7 @@
         <v>136</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>206</v>
@@ -13683,10 +13661,10 @@
         <v>162</v>
       </c>
       <c r="J90" s="4">
-        <v>43300.010416666664</v>
+        <v>43299.951388888891</v>
       </c>
       <c r="K90" s="4">
-        <v>43313.398611111108</v>
+        <v>43299.95208333333</v>
       </c>
       <c r="L90"/>
       <c r="M90"/>
@@ -13696,22 +13674,22 @@
         <v>158</v>
       </c>
       <c r="B91" t="s">
-        <v>371</v>
+        <v>163</v>
       </c>
       <c r="C91">
-        <v>10084</v>
+        <v>10051</v>
       </c>
       <c r="D91" t="s">
-        <v>372</v>
+        <v>164</v>
       </c>
       <c r="E91" t="s">
         <v>136</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>165</v>
@@ -13720,10 +13698,10 @@
         <v>162</v>
       </c>
       <c r="J91" s="4">
-        <v>43304.701388888891</v>
+        <v>43299.957638888889</v>
       </c>
       <c r="K91" s="4">
-        <v>43313.690972222219</v>
+        <v>43304.720833333333</v>
       </c>
       <c r="L91"/>
       <c r="M91"/>
@@ -13733,16 +13711,16 @@
         <v>158</v>
       </c>
       <c r="B92" t="s">
-        <v>369</v>
+        <v>166</v>
       </c>
       <c r="C92">
-        <v>10085</v>
+        <v>10052</v>
       </c>
       <c r="D92" t="s">
-        <v>370</v>
+        <v>167</v>
       </c>
       <c r="E92" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>168</v>
@@ -13751,16 +13729,16 @@
         <v>373</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>206</v>
+        <v>165</v>
       </c>
       <c r="I92" t="s">
         <v>162</v>
       </c>
       <c r="J92" s="4">
-        <v>43304.715277777781</v>
+        <v>43299.993750000001</v>
       </c>
       <c r="K92" s="4">
-        <v>43304.718055555553</v>
+        <v>43304.724999999999</v>
       </c>
       <c r="L92"/>
       <c r="M92"/>
@@ -13770,34 +13748,34 @@
         <v>158</v>
       </c>
       <c r="B93" t="s">
-        <v>367</v>
+        <v>207</v>
       </c>
       <c r="C93">
-        <v>10086</v>
+        <v>10053</v>
       </c>
       <c r="D93" t="s">
-        <v>368</v>
+        <v>208</v>
       </c>
       <c r="E93" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>373</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="I93" t="s">
         <v>162</v>
       </c>
       <c r="J93" s="4">
-        <v>43304.724999999999</v>
+        <v>43300.010416666664</v>
       </c>
       <c r="K93" s="4">
-        <v>43304.726388888892</v>
+        <v>43313.398611111108</v>
       </c>
       <c r="L93"/>
       <c r="M93"/>
@@ -13807,32 +13785,34 @@
         <v>158</v>
       </c>
       <c r="B94" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C94">
-        <v>10089</v>
+        <v>10084</v>
       </c>
       <c r="D94" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="E94" t="s">
-        <v>315</v>
+        <v>136</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>195</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="I94"/>
+      <c r="I94" t="s">
+        <v>162</v>
+      </c>
       <c r="J94" s="4">
-        <v>43304.855555555558</v>
+        <v>43304.701388888891</v>
       </c>
       <c r="K94" s="4">
-        <v>43305.89166666667</v>
+        <v>43313.690972222219</v>
       </c>
       <c r="L94"/>
       <c r="M94"/>
@@ -13842,121 +13822,188 @@
         <v>158</v>
       </c>
       <c r="B95" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C95">
-        <v>10090</v>
+        <v>10085</v>
       </c>
       <c r="D95" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="E95" t="s">
-        <v>315</v>
+        <v>136</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>315</v>
+        <v>168</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="I95"/>
+        <v>206</v>
+      </c>
+      <c r="I95" t="s">
+        <v>162</v>
+      </c>
       <c r="J95" s="4">
-        <v>43304.921527777777</v>
+        <v>43304.715277777781</v>
       </c>
       <c r="K95" s="4">
-        <v>43310.668749999997</v>
+        <v>43304.718055555553</v>
       </c>
       <c r="L95"/>
       <c r="M95"/>
     </row>
-    <row r="96" spans="1:13" s="10" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>158</v>
       </c>
       <c r="B96" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C96">
-        <v>10092</v>
+        <v>10086</v>
       </c>
       <c r="D96" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E96" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>206</v>
+        <v>165</v>
       </c>
       <c r="I96" t="s">
         <v>162</v>
       </c>
       <c r="J96" s="4">
-        <v>43305.405555555553</v>
+        <v>43304.724999999999</v>
       </c>
       <c r="K96" s="4">
-        <v>43307.611805555556</v>
+        <v>43304.726388888892</v>
       </c>
       <c r="L96"/>
       <c r="M96"/>
     </row>
-    <row r="97" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="7" t="s">
+    <row r="97" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>158</v>
+      </c>
+      <c r="B97" t="s">
+        <v>365</v>
+      </c>
+      <c r="C97">
+        <v>10089</v>
+      </c>
+      <c r="D97" t="s">
+        <v>366</v>
+      </c>
+      <c r="E97" t="s">
+        <v>315</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="I97"/>
+      <c r="J97" s="4">
+        <v>43304.855555555558</v>
+      </c>
+      <c r="K97" s="4">
+        <v>43305.89166666667</v>
+      </c>
+      <c r="L97"/>
+      <c r="M97"/>
+    </row>
+    <row r="98" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>158</v>
+      </c>
+      <c r="B98" t="s">
+        <v>363</v>
+      </c>
+      <c r="C98">
+        <v>10090</v>
+      </c>
+      <c r="D98" t="s">
+        <v>364</v>
+      </c>
+      <c r="E98" t="s">
+        <v>315</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="I98"/>
+      <c r="J98" s="4">
+        <v>43304.921527777777</v>
+      </c>
+      <c r="K98" s="4">
+        <v>43310.668749999997</v>
+      </c>
+      <c r="L98"/>
+      <c r="M98"/>
+    </row>
+    <row r="99" spans="1:13" s="10" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>158</v>
+      </c>
+      <c r="B99" t="s">
+        <v>361</v>
+      </c>
+      <c r="C99">
+        <v>10092</v>
+      </c>
+      <c r="D99" t="s">
+        <v>362</v>
+      </c>
+      <c r="E99" t="s">
+        <v>172</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I99" t="s">
+        <v>162</v>
+      </c>
+      <c r="J99" s="4">
+        <v>43305.405555555553</v>
+      </c>
+      <c r="K99" s="4">
+        <v>43307.611805555556</v>
+      </c>
+      <c r="L99"/>
+      <c r="M99"/>
+    </row>
+    <row r="100" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D97" s="7" t="s">
+      <c r="D100" s="7" t="s">
         <v>3</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="H97" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="H98" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="H99" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>5</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>215</v>
@@ -13965,26 +14012,26 @@
         <v>399</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="8" t="s">
-        <v>217</v>
+    <row r="101" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>215</v>
+      </c>
+      <c r="H101" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>215</v>
@@ -13993,26 +14040,26 @@
         <v>399</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H103" s="3" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>215</v>
+      </c>
+      <c r="H103" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="8" t="s">
         <v>217</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>214</v>
@@ -14021,12 +14068,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>215</v>
@@ -14035,124 +14082,124 @@
         <v>399</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H108" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="H106" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D107" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="H107" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="H108" s="3" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G109" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H109" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H110" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H109" s="3" t="s">
+      <c r="H111" s="3" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="7" t="s">
+    <row r="112" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="D110" s="7" t="s">
+      <c r="D112" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G110" s="2" t="s">
+      <c r="G112" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H110" s="3" t="s">
+      <c r="H112" s="3" t="s">
         <v>400</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D111" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="H111" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D112" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="H112" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="7" t="s">
-        <v>6</v>
+        <v>218</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="H113" t="s">
-        <v>399</v>
+        <v>145</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>215</v>
@@ -14163,69 +14210,69 @@
     </row>
     <row r="115" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="7" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H115" s="3" t="s">
-        <v>400</v>
+        <v>215</v>
+      </c>
+      <c r="H115" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D116" s="9" t="s">
-        <v>5</v>
+      <c r="D116" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H116" s="3" t="s">
-        <v>400</v>
+      <c r="H116" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D117" s="9" t="s">
-        <v>19</v>
+        <v>6</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="H117" s="3" t="s">
-        <v>400</v>
+        <v>215</v>
+      </c>
+      <c r="H117" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="7" t="s">
-        <v>220</v>
+        <v>18</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H118" s="3" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="8" t="s">
-        <v>217</v>
+      <c r="A119" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H119" s="3" t="s">
         <v>400</v>
@@ -14233,52 +14280,52 @@
     </row>
     <row r="120" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="H120" t="s">
-        <v>399</v>
+        <v>219</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="7" t="s">
-        <v>6</v>
+        <v>220</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H121" t="s">
-        <v>399</v>
+      <c r="H121" s="3" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>27</v>
+      <c r="A122" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="H122" t="s">
-        <v>399</v>
+        <v>214</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>215</v>
@@ -14289,10 +14336,10 @@
     </row>
     <row r="124" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="7" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>215</v>
@@ -14302,17 +14349,17 @@
       </c>
     </row>
     <row r="125" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="8" t="s">
-        <v>217</v>
+      <c r="A125" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H125" s="3" t="s">
-        <v>400</v>
+        <v>215</v>
+      </c>
+      <c r="H125" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -14320,7 +14367,7 @@
         <v>4</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>215</v>
@@ -14330,56 +14377,56 @@
       </c>
     </row>
     <row r="127" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="8" t="s">
+      <c r="A127" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H127" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="D127" s="7" t="s">
+      <c r="D128" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G127" s="2" t="s">
+      <c r="G128" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="H127" s="3" t="s">
+      <c r="H128" s="3" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D128" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G128" s="2" t="s">
+    <row r="129" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H128" t="s">
+      <c r="H129" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="8" t="s">
+    <row r="130" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="D129" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G129" s="2" t="s">
+      <c r="D130" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G130" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="H129" s="3" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="D130" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="H130" s="3" t="s">
         <v>400</v>
@@ -14387,10 +14434,10 @@
     </row>
     <row r="131" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="7" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>215</v>
@@ -14400,31 +14447,31 @@
       </c>
     </row>
     <row r="132" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="7" t="s">
-        <v>11</v>
+      <c r="A132" s="8" t="s">
+        <v>217</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="H132" t="s">
-        <v>399</v>
+        <v>214</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="7" t="s">
-        <v>6</v>
+        <v>218</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H133" t="s">
-        <v>399</v>
+      <c r="H133" s="3" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -14432,7 +14479,7 @@
         <v>39</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>215</v>
@@ -14443,10 +14490,10 @@
     </row>
     <row r="135" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>215</v>
@@ -14457,10 +14504,10 @@
     </row>
     <row r="136" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="7" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>215</v>
@@ -14485,10 +14532,10 @@
     </row>
     <row r="138" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>215</v>
@@ -14499,10 +14546,10 @@
     </row>
     <row r="139" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="7" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>215</v>
@@ -14527,10 +14574,10 @@
     </row>
     <row r="141" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="7" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>215</v>
@@ -14569,10 +14616,10 @@
     </row>
     <row r="144" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="7" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>215</v>
@@ -14583,10 +14630,10 @@
     </row>
     <row r="145" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="7" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>215</v>
@@ -14611,10 +14658,10 @@
     </row>
     <row r="147" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="7" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>215</v>
@@ -14628,7 +14675,7 @@
         <v>39</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>215</v>
@@ -14642,7 +14689,7 @@
         <v>39</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>215</v>
@@ -14656,7 +14703,7 @@
         <v>39</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>215</v>
@@ -14670,7 +14717,7 @@
         <v>39</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>215</v>
@@ -14684,21 +14731,21 @@
         <v>39</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H152" s="3" t="s">
-        <v>400</v>
+      <c r="H152" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="7" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>215</v>
@@ -14709,10 +14756,10 @@
     </row>
     <row r="154" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="7" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>215</v>
@@ -14723,10 +14770,10 @@
     </row>
     <row r="155" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="7" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>215</v>
@@ -14754,24 +14801,24 @@
         <v>6</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H157" s="3" t="s">
-        <v>400</v>
+      <c r="H157" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="7" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H158" s="3" t="s">
         <v>400</v>
@@ -14782,7 +14829,7 @@
         <v>6</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G159" s="2" t="s">
         <v>215</v>
@@ -14793,52 +14840,52 @@
     </row>
     <row r="160" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="7" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="G160" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H160" t="s">
-        <v>399</v>
+      <c r="H160" s="3" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="H161" t="s">
-        <v>399</v>
+        <v>214</v>
+      </c>
+      <c r="H161" s="3" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="7" t="s">
-        <v>220</v>
+        <v>6</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G162" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H162" s="3" t="s">
-        <v>400</v>
+      <c r="H162" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="G163" s="2" t="s">
         <v>215</v>
@@ -14849,10 +14896,10 @@
     </row>
     <row r="164" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="7" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="G164" s="2" t="s">
         <v>215</v>
@@ -14863,24 +14910,24 @@
     </row>
     <row r="165" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="7" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="G165" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H165" t="s">
-        <v>399</v>
+      <c r="H165" s="3" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="7" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="G166" s="2" t="s">
         <v>215</v>
@@ -14891,10 +14938,10 @@
     </row>
     <row r="167" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="7" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G167" s="2" t="s">
         <v>215</v>
@@ -14922,7 +14969,7 @@
         <v>4</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="G169" s="2" t="s">
         <v>215</v>
@@ -14933,10 +14980,10 @@
     </row>
     <row r="170" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="7" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G170" s="2" t="s">
         <v>215</v>
@@ -14961,10 +15008,10 @@
     </row>
     <row r="172" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G172" s="2" t="s">
         <v>215</v>
@@ -15003,10 +15050,10 @@
     </row>
     <row r="175" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="G175" s="2" t="s">
         <v>215</v>
@@ -15076,7 +15123,7 @@
         <v>4</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="G180" s="2" t="s">
         <v>215</v>
@@ -15087,10 +15134,10 @@
     </row>
     <row r="181" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="7" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="G181" s="2" t="s">
         <v>215</v>
@@ -15101,10 +15148,10 @@
     </row>
     <row r="182" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="7" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="G182" s="2" t="s">
         <v>215</v>
@@ -15115,10 +15162,10 @@
     </row>
     <row r="183" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="7" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>215</v>
@@ -15132,7 +15179,7 @@
         <v>39</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G184" s="2" t="s">
         <v>215</v>
@@ -15146,7 +15193,7 @@
         <v>39</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>215</v>
@@ -15157,10 +15204,10 @@
     </row>
     <row r="186" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="7" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G186" s="2" t="s">
         <v>215</v>
@@ -15174,7 +15221,7 @@
         <v>39</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G187" s="2" t="s">
         <v>215</v>
@@ -15188,7 +15235,7 @@
         <v>39</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G188" s="2" t="s">
         <v>215</v>
@@ -15199,10 +15246,10 @@
     </row>
     <row r="189" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G189" s="2" t="s">
         <v>215</v>
@@ -15212,39 +15259,39 @@
       </c>
     </row>
     <row r="190" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="8" t="s">
-        <v>217</v>
+      <c r="A190" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H190" s="3" t="s">
-        <v>400</v>
+        <v>215</v>
+      </c>
+      <c r="H190" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A191" s="8" t="s">
-        <v>217</v>
+      <c r="A191" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H191" s="3" t="s">
-        <v>400</v>
+        <v>215</v>
+      </c>
+      <c r="H191" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G192" s="2" t="s">
         <v>215</v>
@@ -15254,39 +15301,39 @@
       </c>
     </row>
     <row r="193" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A193" s="7" t="s">
-        <v>4</v>
+      <c r="A193" s="8" t="s">
+        <v>217</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="H193" t="s">
-        <v>399</v>
+        <v>214</v>
+      </c>
+      <c r="H193" s="3" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A194" s="7" t="s">
-        <v>4</v>
+      <c r="A194" s="8" t="s">
+        <v>217</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="H194" t="s">
-        <v>399</v>
+        <v>214</v>
+      </c>
+      <c r="H194" s="3" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="7" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G195" s="2" t="s">
         <v>215</v>
@@ -15297,10 +15344,10 @@
     </row>
     <row r="196" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="7" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="G196" s="2" t="s">
         <v>215</v>
@@ -15311,10 +15358,10 @@
     </row>
     <row r="197" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="7" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="G197" s="2" t="s">
         <v>215</v>
@@ -15323,12 +15370,12 @@
         <v>399</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G198" s="2" t="s">
         <v>215</v>
@@ -15337,12 +15384,12 @@
         <v>399</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G199" s="2" t="s">
         <v>215</v>
@@ -15353,10 +15400,10 @@
     </row>
     <row r="200" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="7" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G200" s="2" t="s">
         <v>215</v>
@@ -15365,12 +15412,12 @@
         <v>399</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G201" s="2" t="s">
         <v>215</v>
@@ -15379,12 +15426,12 @@
         <v>399</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G202" s="2" t="s">
         <v>215</v>
@@ -15395,10 +15442,10 @@
     </row>
     <row r="203" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="7" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G203" s="2" t="s">
         <v>215</v>
@@ -15412,7 +15459,7 @@
         <v>39</v>
       </c>
       <c r="D204" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G204" s="2" t="s">
         <v>215</v>
@@ -15426,7 +15473,7 @@
         <v>39</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G205" s="2" t="s">
         <v>215</v>
@@ -15437,10 +15484,10 @@
     </row>
     <row r="206" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="7" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="D206" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G206" s="2" t="s">
         <v>215</v>
@@ -15449,8 +15496,50 @@
         <v>399</v>
       </c>
     </row>
+    <row r="207" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A207" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D207" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H207" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A208" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D208" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H208" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A209" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D209" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H209" t="s">
+        <v>399</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M206"/>
+  <autoFilter ref="A1:M209"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/defect_category_2.xlsx
+++ b/defect_category_2.xlsx
@@ -23,13 +23,13 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Code Review'!$B$3:$I$113</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">통합!$A$1:$M$209</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">통합!$A$1:$AI$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId9"/>
-    <pivotCache cacheId="13" r:id="rId10"/>
-    <pivotCache cacheId="14" r:id="rId11"/>
+    <pivotCache cacheId="15" r:id="rId9"/>
+    <pivotCache cacheId="16" r:id="rId10"/>
+    <pivotCache cacheId="17" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2777" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2844" uniqueCount="468">
   <si>
     <t>SonarQube</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1336,6 +1336,172 @@
   </si>
   <si>
     <t>[Defect] save/load : rooms visit information error.  - at load time, current room is in room visited.</t>
+  </si>
+  <si>
+    <t>tc_p25</t>
+  </si>
+  <si>
+    <t>tc_p20</t>
+  </si>
+  <si>
+    <t>tc_p8</t>
+  </si>
+  <si>
+    <t>tc_p22, tc_p24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tc_p24</t>
+  </si>
+  <si>
+    <t>tc_p22</t>
+  </si>
+  <si>
+    <t>tc_opensafe</t>
+  </si>
+  <si>
+    <t>tc_cr21</t>
+  </si>
+  <si>
+    <t>tc_cr18</t>
+  </si>
+  <si>
+    <t>tc_cr11</t>
+  </si>
+  <si>
+    <t>tc_cr12, tc_cr13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tc_cr16</t>
+  </si>
+  <si>
+    <t>tc_cr7</t>
+  </si>
+  <si>
+    <t>tc_cr06</t>
+  </si>
+  <si>
+    <t>tc_cg3</t>
+  </si>
+  <si>
+    <t>tc_cg6</t>
+  </si>
+  <si>
+    <t>tc_cg5</t>
+  </si>
+  <si>
+    <t>tc_cr4</t>
+  </si>
+  <si>
+    <t>tc_cr22</t>
+  </si>
+  <si>
+    <t>tc_detonatedynamite</t>
+  </si>
+  <si>
+    <t>tc_cr19</t>
+  </si>
+  <si>
+    <t>tc_startmicrowave</t>
+  </si>
+  <si>
+    <t>tc_p26</t>
+  </si>
+  <si>
+    <t>tc_openlock</t>
+  </si>
+  <si>
+    <t>tc_enter, tc_pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tc_uc04</t>
+  </si>
+  <si>
+    <t>tc_p1</t>
+  </si>
+  <si>
+    <t>tc_e4</t>
+  </si>
+  <si>
+    <t>tc_p12</t>
+  </si>
+  <si>
+    <t>tc_p2, tc_removedocumentinsafe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tc_putgoldinlock</t>
+  </si>
+  <si>
+    <t>tc_removedocumentinsafe</t>
+  </si>
+  <si>
+    <t>tc_eatcoffee, tc_eatfood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tc_digshovel</t>
+  </si>
+  <si>
+    <t>tc_removegoldinpot</t>
+  </si>
+  <si>
+    <t>tc_openlock, tc_putkeyinlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tc_breakpot</t>
+  </si>
+  <si>
+    <t>tc_p4, tc_p5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tc_p9, tc_digshovel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tc_allaction</t>
+  </si>
+  <si>
+    <t>tc_inspectaction</t>
+  </si>
+  <si>
+    <t>tc_installaction, tc_putaction, tc_removeaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tc_uc06</t>
+  </si>
+  <si>
+    <t>tc_uc10</t>
+  </si>
+  <si>
+    <t>tc_uc09</t>
+  </si>
+  <si>
+    <t>tc_p6</t>
+  </si>
+  <si>
+    <t>tc_p3</t>
+  </si>
+  <si>
+    <t>tc_picupkey</t>
+  </si>
+  <si>
+    <t>tc_uc03</t>
+  </si>
+  <si>
+    <t>tc_p5</t>
+  </si>
+  <si>
+    <t>tc_uc02</t>
+  </si>
+  <si>
+    <t>covered TC ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1510,7 +1676,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1576,6 +1742,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1698,7 +1867,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1756,11 +1924,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="388866056"/>
-        <c:axId val="388866448"/>
+        <c:axId val="328403016"/>
+        <c:axId val="328403408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="388866056"/>
+        <c:axId val="328403016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1803,7 +1971,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388866448"/>
+        <c:crossAx val="328403408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1811,7 +1979,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="388866448"/>
+        <c:axId val="328403408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1862,7 +2030,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388866056"/>
+        <c:crossAx val="328403016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2001,11 +2169,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="442611848"/>
-        <c:axId val="442612240"/>
+        <c:axId val="328404192"/>
+        <c:axId val="328404584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="442611848"/>
+        <c:axId val="328404192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2048,7 +2216,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442612240"/>
+        <c:crossAx val="328404584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2056,7 +2224,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="442612240"/>
+        <c:axId val="328404584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2107,7 +2275,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442611848"/>
+        <c:crossAx val="328404192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2459,11 +2627,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="442613024"/>
-        <c:axId val="442613416"/>
+        <c:axId val="271098352"/>
+        <c:axId val="271098744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="442613024"/>
+        <c:axId val="271098352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2506,7 +2674,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442613416"/>
+        <c:crossAx val="271098744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2514,7 +2682,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="442613416"/>
+        <c:axId val="271098744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2565,7 +2733,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442613024"/>
+        <c:crossAx val="271098352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3286,11 +3454,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="442614200"/>
-        <c:axId val="442614592"/>
+        <c:axId val="271099528"/>
+        <c:axId val="271099920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="442614200"/>
+        <c:axId val="271099528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3333,7 +3501,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442614592"/>
+        <c:crossAx val="271099920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3341,7 +3509,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="442614592"/>
+        <c:axId val="271099920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3392,7 +3560,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442614200"/>
+        <c:crossAx val="271099528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3573,11 +3741,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="440318040"/>
-        <c:axId val="440318432"/>
+        <c:axId val="271100704"/>
+        <c:axId val="271101096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="440318040"/>
+        <c:axId val="271100704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3620,7 +3788,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="440318432"/>
+        <c:crossAx val="271101096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3628,7 +3796,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="440318432"/>
+        <c:axId val="271101096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3679,7 +3847,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="440318040"/>
+        <c:crossAx val="271100704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3823,7 +3991,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3882,11 +4049,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="440319216"/>
-        <c:axId val="440319608"/>
+        <c:axId val="399109104"/>
+        <c:axId val="399109496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="440319216"/>
+        <c:axId val="399109104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3929,7 +4096,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="440319608"/>
+        <c:crossAx val="399109496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3937,7 +4104,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="440319608"/>
+        <c:axId val="399109496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3988,7 +4155,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="440319216"/>
+        <c:crossAx val="399109104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9480,7 +9647,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -9529,7 +9696,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블2" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:H9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -9612,7 +9779,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블11" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블11" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -9669,7 +9836,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -10554,10 +10721,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M209"/>
+  <dimension ref="A1:AI209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N70" sqref="N70:N72"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10575,7 +10742,7 @@
     <col min="12" max="12" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>148</v>
       </c>
@@ -10615,8 +10782,11 @@
       <c r="M1" s="3" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>158</v>
       </c>
@@ -10647,8 +10817,11 @@
       <c r="K2" s="4">
         <v>43313.69027777778</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>158</v>
       </c>
@@ -10679,8 +10852,11 @@
       <c r="K3" s="4">
         <v>43313.69027777778</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>158</v>
       </c>
@@ -10714,8 +10890,11 @@
       <c r="K4" s="4">
         <v>43309.468055555553</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>158</v>
       </c>
@@ -10746,8 +10925,11 @@
       <c r="K5" s="4">
         <v>43313.689583333333</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N5" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>158</v>
       </c>
@@ -10781,8 +10963,11 @@
       <c r="K6" s="4">
         <v>43313.689583333333</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N6" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>158</v>
       </c>
@@ -10816,9 +11001,12 @@
       <c r="K7" s="4">
         <v>43313.689583333333</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="N7" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
         <v>158</v>
       </c>
       <c r="B8" t="s">
@@ -10827,7 +11015,7 @@
       <c r="C8">
         <v>10113</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="21" t="s">
         <v>348</v>
       </c>
       <c r="E8" t="s">
@@ -10836,7 +11024,7 @@
       <c r="F8" t="s">
         <v>315</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="21" t="s">
         <v>373</v>
       </c>
       <c r="H8" t="s">
@@ -10852,8 +11040,8 @@
         <v>43313.536805555559</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
         <v>158</v>
       </c>
       <c r="B9" t="s">
@@ -10862,7 +11050,7 @@
       <c r="C9">
         <v>10114</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="21" t="s">
         <v>346</v>
       </c>
       <c r="E9" t="s">
@@ -10871,7 +11059,7 @@
       <c r="F9" t="s">
         <v>315</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="21" t="s">
         <v>373</v>
       </c>
       <c r="H9" t="s">
@@ -10887,8 +11075,8 @@
         <v>43313.536805555559</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
         <v>158</v>
       </c>
       <c r="B10" t="s">
@@ -10897,7 +11085,7 @@
       <c r="C10">
         <v>10115</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="21" t="s">
         <v>344</v>
       </c>
       <c r="E10" t="s">
@@ -10906,7 +11094,7 @@
       <c r="F10" t="s">
         <v>315</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="21" t="s">
         <v>374</v>
       </c>
       <c r="H10" t="s">
@@ -10922,8 +11110,8 @@
         <v>43313.536805555559</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
         <v>158</v>
       </c>
       <c r="B11" t="s">
@@ -10932,7 +11120,7 @@
       <c r="C11">
         <v>10116</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="21" t="s">
         <v>342</v>
       </c>
       <c r="E11" t="s">
@@ -10941,7 +11129,7 @@
       <c r="F11" t="s">
         <v>315</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="21" t="s">
         <v>374</v>
       </c>
       <c r="H11" t="s">
@@ -10957,8 +11145,8 @@
         <v>43313.536805555559</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="21" t="s">
         <v>158</v>
       </c>
       <c r="B12" t="s">
@@ -10967,7 +11155,7 @@
       <c r="C12">
         <v>10119</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="21" t="s">
         <v>340</v>
       </c>
       <c r="E12" t="s">
@@ -10976,7 +11164,7 @@
       <c r="F12" t="s">
         <v>315</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="21" t="s">
         <v>374</v>
       </c>
       <c r="H12" t="s">
@@ -10992,7 +11180,7 @@
         <v>43313.579861111109</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>158</v>
       </c>
@@ -11023,8 +11211,11 @@
       <c r="K13" s="4">
         <v>43313.689583333333</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>158</v>
       </c>
@@ -11055,8 +11246,11 @@
       <c r="K14" s="4">
         <v>43313.689583333333</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N14" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>158</v>
       </c>
@@ -11090,9 +11284,12 @@
       <c r="K15" s="4">
         <v>43309.468055555553</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="N15" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="21" t="s">
         <v>158</v>
       </c>
       <c r="B16" t="s">
@@ -11101,7 +11298,7 @@
       <c r="C16">
         <v>10124</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="21" t="s">
         <v>332</v>
       </c>
       <c r="E16" t="s">
@@ -11110,7 +11307,7 @@
       <c r="F16" t="s">
         <v>315</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="21" t="s">
         <v>373</v>
       </c>
       <c r="H16" t="s">
@@ -11126,8 +11323,8 @@
         <v>43313.579861111109</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="21" t="s">
         <v>158</v>
       </c>
       <c r="B17" t="s">
@@ -11136,7 +11333,7 @@
       <c r="C17">
         <v>10125</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="21" t="s">
         <v>330</v>
       </c>
       <c r="E17" t="s">
@@ -11145,7 +11342,7 @@
       <c r="F17" t="s">
         <v>315</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="21" t="s">
         <v>373</v>
       </c>
       <c r="H17" t="s">
@@ -11161,8 +11358,8 @@
         <v>43313.579861111109</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="21" t="s">
         <v>158</v>
       </c>
       <c r="B18" t="s">
@@ -11171,7 +11368,7 @@
       <c r="C18">
         <v>10126</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="21" t="s">
         <v>328</v>
       </c>
       <c r="E18" t="s">
@@ -11180,7 +11377,7 @@
       <c r="F18" t="s">
         <v>315</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="21" t="s">
         <v>373</v>
       </c>
       <c r="H18" t="s">
@@ -11196,8 +11393,8 @@
         <v>43313.579861111109</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="21" t="s">
         <v>158</v>
       </c>
       <c r="B19" t="s">
@@ -11206,7 +11403,7 @@
       <c r="C19">
         <v>10128</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="21" t="s">
         <v>326</v>
       </c>
       <c r="E19" t="s">
@@ -11215,7 +11412,7 @@
       <c r="F19" t="s">
         <v>315</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="21" t="s">
         <v>373</v>
       </c>
       <c r="H19" t="s">
@@ -11231,8 +11428,8 @@
         <v>43313.579861111109</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="21" t="s">
         <v>158</v>
       </c>
       <c r="B20" t="s">
@@ -11241,7 +11438,7 @@
       <c r="C20">
         <v>10129</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="21" t="s">
         <v>324</v>
       </c>
       <c r="E20" t="s">
@@ -11250,7 +11447,7 @@
       <c r="F20" t="s">
         <v>315</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="21" t="s">
         <v>373</v>
       </c>
       <c r="H20" t="s">
@@ -11266,8 +11463,8 @@
         <v>43313.579861111109</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="21" t="s">
         <v>158</v>
       </c>
       <c r="B21" t="s">
@@ -11276,7 +11473,7 @@
       <c r="C21">
         <v>10130</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="21" t="s">
         <v>322</v>
       </c>
       <c r="E21" t="s">
@@ -11285,7 +11482,7 @@
       <c r="F21" t="s">
         <v>315</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="21" t="s">
         <v>373</v>
       </c>
       <c r="H21" t="s">
@@ -11301,8 +11498,8 @@
         <v>43313.579861111109</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="21" t="s">
         <v>158</v>
       </c>
       <c r="B22" t="s">
@@ -11311,7 +11508,7 @@
       <c r="C22">
         <v>10131</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="21" t="s">
         <v>320</v>
       </c>
       <c r="E22" t="s">
@@ -11320,7 +11517,7 @@
       <c r="F22" t="s">
         <v>315</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="21" t="s">
         <v>373</v>
       </c>
       <c r="H22" t="s">
@@ -11336,8 +11533,8 @@
         <v>43313.579861111109</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="21" t="s">
         <v>158</v>
       </c>
       <c r="B23" t="s">
@@ -11346,7 +11543,7 @@
       <c r="C23">
         <v>10132</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="21" t="s">
         <v>318</v>
       </c>
       <c r="E23" t="s">
@@ -11355,7 +11552,7 @@
       <c r="F23" t="s">
         <v>315</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="21" t="s">
         <v>373</v>
       </c>
       <c r="H23" t="s">
@@ -11371,8 +11568,8 @@
         <v>43313.579861111109</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="21" t="s">
         <v>158</v>
       </c>
       <c r="B24" t="s">
@@ -11381,7 +11578,7 @@
       <c r="C24">
         <v>10133</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="21" t="s">
         <v>314</v>
       </c>
       <c r="E24" t="s">
@@ -11390,7 +11587,7 @@
       <c r="F24" t="s">
         <v>315</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="21" t="s">
         <v>373</v>
       </c>
       <c r="H24" t="s">
@@ -11406,7 +11603,7 @@
         <v>43313.578472222223</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>158</v>
       </c>
@@ -11440,8 +11637,11 @@
       <c r="K25" s="4">
         <v>43309.46875</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N25" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>158</v>
       </c>
@@ -11475,8 +11675,11 @@
       <c r="K26" s="4">
         <v>43313.688888888886</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N26" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>158</v>
       </c>
@@ -11510,8 +11713,11 @@
       <c r="K27" s="4">
         <v>43309.474999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N27" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>158</v>
       </c>
@@ -11545,8 +11751,11 @@
       <c r="K28" s="4">
         <v>43309.474999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N28" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>158</v>
       </c>
@@ -11580,8 +11789,11 @@
       <c r="K29" s="4">
         <v>43309.474999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N29" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>158</v>
       </c>
@@ -11615,8 +11827,11 @@
       <c r="K30" s="4">
         <v>43309.475694444445</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N30" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>158</v>
       </c>
@@ -11647,8 +11862,11 @@
       <c r="K31" s="4">
         <v>43309.680555555555</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N31" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>158</v>
       </c>
@@ -11679,9 +11897,12 @@
       <c r="K32" s="4">
         <v>43313.467361111114</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="N32" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="21" t="s">
         <v>158</v>
       </c>
       <c r="B33" t="s">
@@ -11690,7 +11911,7 @@
       <c r="C33">
         <v>10153</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="21" t="s">
         <v>296</v>
       </c>
       <c r="E33" t="s">
@@ -11699,10 +11920,10 @@
       <c r="F33" t="s">
         <v>168</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="21" t="s">
         <v>161</v>
       </c>
       <c r="I33" t="s">
@@ -11715,7 +11936,7 @@
         <v>43311.59375</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>158</v>
       </c>
@@ -11749,8 +11970,11 @@
       <c r="K34" s="4">
         <v>43310.92291666667</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N34" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>158</v>
       </c>
@@ -11785,7 +12009,7 @@
         <v>43311.411111111112</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>158</v>
       </c>
@@ -11820,7 +12044,7 @@
         <v>43311.411111111112</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>158</v>
       </c>
@@ -11855,7 +12079,7 @@
         <v>43311.411111111112</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>158</v>
       </c>
@@ -11889,8 +12113,11 @@
       <c r="K38" s="4">
         <v>43311.916666666664</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N38" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>158</v>
       </c>
@@ -11924,9 +12151,12 @@
       <c r="K39" s="4">
         <v>43313.6875</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="N39" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="21" t="s">
         <v>158</v>
       </c>
       <c r="B40" t="s">
@@ -11935,7 +12165,7 @@
       <c r="C40">
         <v>10161</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="21" t="s">
         <v>281</v>
       </c>
       <c r="E40" t="s">
@@ -11944,7 +12174,7 @@
       <c r="F40" t="s">
         <v>136</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="21" t="s">
         <v>373</v>
       </c>
       <c r="H40" t="s">
@@ -11960,8 +12190,8 @@
         <v>43311.472222222219</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="21" t="s">
         <v>158</v>
       </c>
       <c r="B41" t="s">
@@ -11970,7 +12200,7 @@
       <c r="C41">
         <v>10162</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="21" t="s">
         <v>279</v>
       </c>
       <c r="E41" t="s">
@@ -11979,7 +12209,7 @@
       <c r="F41" t="s">
         <v>136</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="21" t="s">
         <v>373</v>
       </c>
       <c r="H41" t="s">
@@ -11995,8 +12225,8 @@
         <v>43311.472222222219</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="21" t="s">
         <v>158</v>
       </c>
       <c r="B42" t="s">
@@ -12005,7 +12235,7 @@
       <c r="C42">
         <v>10164</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="21" t="s">
         <v>277</v>
       </c>
       <c r="E42" t="s">
@@ -12014,7 +12244,7 @@
       <c r="F42" t="s">
         <v>168</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="21" t="s">
         <v>374</v>
       </c>
       <c r="H42" t="s">
@@ -12030,8 +12260,8 @@
         <v>43311.474999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" s="21" t="s">
         <v>158</v>
       </c>
       <c r="B43" t="s">
@@ -12040,7 +12270,7 @@
       <c r="C43">
         <v>10165</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="21" t="s">
         <v>275</v>
       </c>
       <c r="E43" t="s">
@@ -12049,7 +12279,7 @@
       <c r="F43" t="s">
         <v>168</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="21" t="s">
         <v>374</v>
       </c>
       <c r="H43" t="s">
@@ -12065,8 +12295,8 @@
         <v>43311.658333333333</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="21" t="s">
         <v>158</v>
       </c>
       <c r="B44" t="s">
@@ -12075,7 +12305,7 @@
       <c r="C44">
         <v>10166</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="21" t="s">
         <v>273</v>
       </c>
       <c r="E44" t="s">
@@ -12084,7 +12314,7 @@
       <c r="F44" t="s">
         <v>168</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="21" t="s">
         <v>374</v>
       </c>
       <c r="H44" t="s">
@@ -12100,7 +12330,7 @@
         <v>43313.449305555558</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>158</v>
       </c>
@@ -12134,8 +12364,11 @@
       <c r="K45" s="4">
         <v>43313.686805555553</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N45" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>158</v>
       </c>
@@ -12169,8 +12402,11 @@
       <c r="K46" s="4">
         <v>43313.686111111114</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N46" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>158</v>
       </c>
@@ -12201,8 +12437,11 @@
       <c r="K47" s="4">
         <v>43313.686111111114</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N47" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>158</v>
       </c>
@@ -12236,8 +12475,11 @@
       <c r="K48" s="4">
         <v>43313.685416666667</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N48" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>158</v>
       </c>
@@ -12271,8 +12513,11 @@
       <c r="K49" s="4">
         <v>43313.685416666667</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N49" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>158</v>
       </c>
@@ -12306,8 +12551,11 @@
       <c r="K50" s="4">
         <v>43313.542361111111</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N50" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>158</v>
       </c>
@@ -12338,8 +12586,11 @@
       <c r="K51" s="4">
         <v>43313.544444444444</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N51" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>158</v>
       </c>
@@ -12370,8 +12621,11 @@
       <c r="K52" s="4">
         <v>43313.488888888889</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N52" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>158</v>
       </c>
@@ -12402,8 +12656,11 @@
       <c r="K53" s="4">
         <v>43313.545138888891</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N53" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>158</v>
       </c>
@@ -12434,8 +12691,11 @@
       <c r="K54" s="4">
         <v>43313.365277777775</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N54" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>158</v>
       </c>
@@ -12466,8 +12726,11 @@
       <c r="K55" s="4">
         <v>43313.368055555555</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N55" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>158</v>
       </c>
@@ -12498,8 +12761,11 @@
       <c r="K56" s="4">
         <v>43313.371527777781</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N56" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>158</v>
       </c>
@@ -12533,8 +12799,11 @@
       <c r="K57" s="4">
         <v>43309.459027777775</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N57" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>158</v>
       </c>
@@ -12565,8 +12834,11 @@
       <c r="K58" s="4">
         <v>43313.373611111114</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N58" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>158</v>
       </c>
@@ -12597,8 +12869,11 @@
       <c r="K59" s="4">
         <v>43313.46875</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N59" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>158</v>
       </c>
@@ -12629,8 +12904,11 @@
       <c r="K60" s="4">
         <v>43313.46875</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N60" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>158</v>
       </c>
@@ -12661,8 +12939,11 @@
       <c r="K61" s="4">
         <v>43313.46875</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N61" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>158</v>
       </c>
@@ -12693,8 +12974,11 @@
       <c r="K62" s="4">
         <v>43313.68472222222</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N62" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>158</v>
       </c>
@@ -12728,9 +13012,12 @@
       <c r="K63" s="4">
         <v>43313.684027777781</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="N63" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A64" s="21" t="s">
         <v>158</v>
       </c>
       <c r="B64" t="s">
@@ -12739,7 +13026,7 @@
       <c r="C64">
         <v>10195</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="21" t="s">
         <v>235</v>
       </c>
       <c r="E64" t="s">
@@ -12748,7 +13035,7 @@
       <c r="F64" t="s">
         <v>168</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="21" t="s">
         <v>374</v>
       </c>
       <c r="H64" t="s">
@@ -12764,7 +13051,7 @@
         <v>43313.53402777778</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>158</v>
       </c>
@@ -12795,8 +13082,11 @@
       <c r="K65" s="4">
         <v>43313.628472222219</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N65" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>158</v>
       </c>
@@ -12830,8 +13120,11 @@
       <c r="K66" s="4">
         <v>43313.68472222222</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N66" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>158</v>
       </c>
@@ -12862,8 +13155,11 @@
       <c r="K67" s="4">
         <v>43313.68472222222</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N67" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>158</v>
       </c>
@@ -12897,8 +13193,11 @@
       <c r="K68" s="4">
         <v>43313.692361111112</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N68" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>158</v>
       </c>
@@ -12932,8 +13231,11 @@
       <c r="K69" s="4">
         <v>43313.68472222222</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N69" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="22" t="s">
         <v>158</v>
       </c>
@@ -12964,8 +13266,11 @@
       <c r="K70" s="4">
         <v>43313.8</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N70" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="22" t="s">
         <v>158</v>
       </c>
@@ -12996,8 +13301,11 @@
       <c r="K71" s="4">
         <v>43313.820138888892</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N71" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="22" t="s">
         <v>158</v>
       </c>
@@ -13028,8 +13336,11 @@
       <c r="K72" s="4">
         <v>43313.831250000003</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N72" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>158</v>
       </c>
@@ -13063,8 +13374,11 @@
       <c r="K73" s="4">
         <v>43309.455555555556</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N73" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>158</v>
       </c>
@@ -13098,8 +13412,11 @@
       <c r="K74" s="4">
         <v>43309.456944444442</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N74" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>158</v>
       </c>
@@ -13133,8 +13450,11 @@
       <c r="K75" s="4">
         <v>43313.692361111112</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N75" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>158</v>
       </c>
@@ -13168,8 +13488,11 @@
       <c r="K76" s="4">
         <v>43309.459722222222</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N76" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>158</v>
       </c>
@@ -13203,8 +13526,11 @@
       <c r="K77" s="4">
         <v>43309.460416666669</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N77" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>158</v>
       </c>
@@ -13238,8 +13564,11 @@
       <c r="K78" s="4">
         <v>43313.691666666666</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N78" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>158</v>
       </c>
@@ -13273,8 +13602,11 @@
       <c r="K79" s="4">
         <v>43313.691666666666</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N79" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>158</v>
       </c>
@@ -13308,8 +13640,11 @@
       <c r="K80" s="4">
         <v>43313.691666666666</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N80" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="81" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>158</v>
       </c>
@@ -13343,8 +13678,11 @@
       <c r="K81" s="4">
         <v>43313.691666666666</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N81" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="82" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>158</v>
       </c>
@@ -13378,8 +13716,11 @@
       <c r="K82" s="4">
         <v>43309.694444444445</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N82" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="83" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>158</v>
       </c>
@@ -13413,8 +13754,33 @@
       <c r="K83" s="4">
         <v>43309.46597222222</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M83" s="23"/>
+      <c r="N83" t="s">
+        <v>461</v>
+      </c>
+      <c r="O83" s="23"/>
+      <c r="P83" s="23"/>
+      <c r="Q83" s="23"/>
+      <c r="R83" s="23"/>
+      <c r="S83" s="23"/>
+      <c r="T83" s="23"/>
+      <c r="U83" s="23"/>
+      <c r="V83" s="23"/>
+      <c r="W83" s="23"/>
+      <c r="X83" s="23"/>
+      <c r="Y83" s="23"/>
+      <c r="Z83" s="23"/>
+      <c r="AA83" s="23"/>
+      <c r="AB83" s="23"/>
+      <c r="AC83" s="23"/>
+      <c r="AD83" s="23"/>
+      <c r="AE83" s="23"/>
+      <c r="AF83" s="23"/>
+      <c r="AG83" s="23"/>
+      <c r="AH83" s="23"/>
+      <c r="AI83" s="23"/>
+    </row>
+    <row r="84" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>158</v>
       </c>
@@ -13448,8 +13814,33 @@
       <c r="K84" s="4">
         <v>43309.466666666667</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M84" s="23"/>
+      <c r="N84" t="s">
+        <v>462</v>
+      </c>
+      <c r="O84" s="23"/>
+      <c r="P84" s="23"/>
+      <c r="Q84" s="23"/>
+      <c r="R84" s="23"/>
+      <c r="S84" s="23"/>
+      <c r="T84" s="23"/>
+      <c r="U84" s="23"/>
+      <c r="V84" s="23"/>
+      <c r="W84" s="23"/>
+      <c r="X84" s="23"/>
+      <c r="Y84" s="23"/>
+      <c r="Z84" s="23"/>
+      <c r="AA84" s="23"/>
+      <c r="AB84" s="23"/>
+      <c r="AC84" s="23"/>
+      <c r="AD84" s="23"/>
+      <c r="AE84" s="23"/>
+      <c r="AF84" s="23"/>
+      <c r="AG84" s="23"/>
+      <c r="AH84" s="23"/>
+      <c r="AI84" s="23"/>
+    </row>
+    <row r="85" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>158</v>
       </c>
@@ -13483,8 +13874,33 @@
       <c r="K85" s="4">
         <v>43309.664583333331</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M85" s="23"/>
+      <c r="N85" t="s">
+        <v>422</v>
+      </c>
+      <c r="O85" s="23"/>
+      <c r="P85" s="23"/>
+      <c r="Q85" s="23"/>
+      <c r="R85" s="23"/>
+      <c r="S85" s="23"/>
+      <c r="T85" s="23"/>
+      <c r="U85" s="23"/>
+      <c r="V85" s="23"/>
+      <c r="W85" s="23"/>
+      <c r="X85" s="23"/>
+      <c r="Y85" s="23"/>
+      <c r="Z85" s="23"/>
+      <c r="AA85" s="23"/>
+      <c r="AB85" s="23"/>
+      <c r="AC85" s="23"/>
+      <c r="AD85" s="23"/>
+      <c r="AE85" s="23"/>
+      <c r="AF85" s="23"/>
+      <c r="AG85" s="23"/>
+      <c r="AH85" s="23"/>
+      <c r="AI85" s="23"/>
+    </row>
+    <row r="86" spans="1:35" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>158</v>
       </c>
@@ -13519,10 +13935,34 @@
         <v>43309.466666666667</v>
       </c>
       <c r="L86"/>
-      <c r="M86"/>
-    </row>
-    <row r="87" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+      <c r="M86" s="23"/>
+      <c r="N86" t="s">
+        <v>463</v>
+      </c>
+      <c r="O86" s="23"/>
+      <c r="P86" s="23"/>
+      <c r="Q86" s="23"/>
+      <c r="R86" s="23"/>
+      <c r="S86" s="23"/>
+      <c r="T86" s="23"/>
+      <c r="U86" s="23"/>
+      <c r="V86" s="23"/>
+      <c r="W86" s="23"/>
+      <c r="X86" s="23"/>
+      <c r="Y86" s="23"/>
+      <c r="Z86" s="23"/>
+      <c r="AA86" s="23"/>
+      <c r="AB86" s="23"/>
+      <c r="AC86" s="23"/>
+      <c r="AD86" s="23"/>
+      <c r="AE86" s="23"/>
+      <c r="AF86" s="23"/>
+      <c r="AG86" s="23"/>
+      <c r="AH86" s="23"/>
+      <c r="AI86" s="23"/>
+    </row>
+    <row r="87" spans="1:35" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="21" t="s">
         <v>158</v>
       </c>
       <c r="B87" t="s">
@@ -13531,7 +13971,7 @@
       <c r="C87">
         <v>10045</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="21" t="s">
         <v>160</v>
       </c>
       <c r="E87" t="s">
@@ -13556,9 +13996,31 @@
         <v>43313.439583333333</v>
       </c>
       <c r="L87"/>
-      <c r="M87"/>
-    </row>
-    <row r="88" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M87" s="23"/>
+      <c r="N87" s="23"/>
+      <c r="O87" s="23"/>
+      <c r="P87" s="23"/>
+      <c r="Q87" s="23"/>
+      <c r="R87" s="23"/>
+      <c r="S87" s="23"/>
+      <c r="T87" s="23"/>
+      <c r="U87" s="23"/>
+      <c r="V87" s="23"/>
+      <c r="W87" s="23"/>
+      <c r="X87" s="23"/>
+      <c r="Y87" s="23"/>
+      <c r="Z87" s="23"/>
+      <c r="AA87" s="23"/>
+      <c r="AB87" s="23"/>
+      <c r="AC87" s="23"/>
+      <c r="AD87" s="23"/>
+      <c r="AE87" s="23"/>
+      <c r="AF87" s="23"/>
+      <c r="AG87" s="23"/>
+      <c r="AH87" s="23"/>
+      <c r="AI87" s="23"/>
+    </row>
+    <row r="88" spans="1:35" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>158</v>
       </c>
@@ -13593,9 +14055,31 @@
         <v>43299.957638888889</v>
       </c>
       <c r="L88"/>
-      <c r="M88"/>
-    </row>
-    <row r="89" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M88" s="23"/>
+      <c r="N88" s="23"/>
+      <c r="O88" s="23"/>
+      <c r="P88" s="23"/>
+      <c r="Q88" s="23"/>
+      <c r="R88" s="23"/>
+      <c r="S88" s="23"/>
+      <c r="T88" s="23"/>
+      <c r="U88" s="23"/>
+      <c r="V88" s="23"/>
+      <c r="W88" s="23"/>
+      <c r="X88" s="23"/>
+      <c r="Y88" s="23"/>
+      <c r="Z88" s="23"/>
+      <c r="AA88" s="23"/>
+      <c r="AB88" s="23"/>
+      <c r="AC88" s="23"/>
+      <c r="AD88" s="23"/>
+      <c r="AE88" s="23"/>
+      <c r="AF88" s="23"/>
+      <c r="AG88" s="23"/>
+      <c r="AH88" s="23"/>
+      <c r="AI88" s="23"/>
+    </row>
+    <row r="89" spans="1:35" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>158</v>
       </c>
@@ -13630,9 +14114,31 @@
         <v>43299.922222222223</v>
       </c>
       <c r="L89"/>
-      <c r="M89"/>
-    </row>
-    <row r="90" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M89" s="23"/>
+      <c r="N89" s="23"/>
+      <c r="O89" s="23"/>
+      <c r="P89" s="23"/>
+      <c r="Q89" s="23"/>
+      <c r="R89" s="23"/>
+      <c r="S89" s="23"/>
+      <c r="T89" s="23"/>
+      <c r="U89" s="23"/>
+      <c r="V89" s="23"/>
+      <c r="W89" s="23"/>
+      <c r="X89" s="23"/>
+      <c r="Y89" s="23"/>
+      <c r="Z89" s="23"/>
+      <c r="AA89" s="23"/>
+      <c r="AB89" s="23"/>
+      <c r="AC89" s="23"/>
+      <c r="AD89" s="23"/>
+      <c r="AE89" s="23"/>
+      <c r="AF89" s="23"/>
+      <c r="AG89" s="23"/>
+      <c r="AH89" s="23"/>
+      <c r="AI89" s="23"/>
+    </row>
+    <row r="90" spans="1:35" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>158</v>
       </c>
@@ -13667,9 +14173,31 @@
         <v>43299.95208333333</v>
       </c>
       <c r="L90"/>
-      <c r="M90"/>
-    </row>
-    <row r="91" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M90" s="23"/>
+      <c r="N90" s="23"/>
+      <c r="O90" s="23"/>
+      <c r="P90" s="23"/>
+      <c r="Q90" s="23"/>
+      <c r="R90" s="23"/>
+      <c r="S90" s="23"/>
+      <c r="T90" s="23"/>
+      <c r="U90" s="23"/>
+      <c r="V90" s="23"/>
+      <c r="W90" s="23"/>
+      <c r="X90" s="23"/>
+      <c r="Y90" s="23"/>
+      <c r="Z90" s="23"/>
+      <c r="AA90" s="23"/>
+      <c r="AB90" s="23"/>
+      <c r="AC90" s="23"/>
+      <c r="AD90" s="23"/>
+      <c r="AE90" s="23"/>
+      <c r="AF90" s="23"/>
+      <c r="AG90" s="23"/>
+      <c r="AH90" s="23"/>
+      <c r="AI90" s="23"/>
+    </row>
+    <row r="91" spans="1:35" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>158</v>
       </c>
@@ -13704,10 +14232,34 @@
         <v>43304.720833333333</v>
       </c>
       <c r="L91"/>
-      <c r="M91"/>
-    </row>
-    <row r="92" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+      <c r="M91" s="23"/>
+      <c r="N91" t="s">
+        <v>464</v>
+      </c>
+      <c r="O91" s="23"/>
+      <c r="P91" s="23"/>
+      <c r="Q91" s="23"/>
+      <c r="R91" s="23"/>
+      <c r="S91" s="23"/>
+      <c r="T91" s="23"/>
+      <c r="U91" s="23"/>
+      <c r="V91" s="23"/>
+      <c r="W91" s="23"/>
+      <c r="X91" s="23"/>
+      <c r="Y91" s="23"/>
+      <c r="Z91" s="23"/>
+      <c r="AA91" s="23"/>
+      <c r="AB91" s="23"/>
+      <c r="AC91" s="23"/>
+      <c r="AD91" s="23"/>
+      <c r="AE91" s="23"/>
+      <c r="AF91" s="23"/>
+      <c r="AG91" s="23"/>
+      <c r="AH91" s="23"/>
+      <c r="AI91" s="23"/>
+    </row>
+    <row r="92" spans="1:35" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="21" t="s">
         <v>158</v>
       </c>
       <c r="B92" t="s">
@@ -13716,7 +14268,7 @@
       <c r="C92">
         <v>10052</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="21" t="s">
         <v>167</v>
       </c>
       <c r="E92" t="s">
@@ -13741,9 +14293,33 @@
         <v>43304.724999999999</v>
       </c>
       <c r="L92"/>
-      <c r="M92"/>
-    </row>
-    <row r="93" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M92" s="23"/>
+      <c r="N92" t="s">
+        <v>442</v>
+      </c>
+      <c r="O92" s="23"/>
+      <c r="P92" s="23"/>
+      <c r="Q92" s="23"/>
+      <c r="R92" s="23"/>
+      <c r="S92" s="23"/>
+      <c r="T92" s="23"/>
+      <c r="U92" s="23"/>
+      <c r="V92" s="23"/>
+      <c r="W92" s="23"/>
+      <c r="X92" s="23"/>
+      <c r="Y92" s="23"/>
+      <c r="Z92" s="23"/>
+      <c r="AA92" s="23"/>
+      <c r="AB92" s="23"/>
+      <c r="AC92" s="23"/>
+      <c r="AD92" s="23"/>
+      <c r="AE92" s="23"/>
+      <c r="AF92" s="23"/>
+      <c r="AG92" s="23"/>
+      <c r="AH92" s="23"/>
+      <c r="AI92" s="23"/>
+    </row>
+    <row r="93" spans="1:35" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>158</v>
       </c>
@@ -13778,10 +14354,32 @@
         <v>43313.398611111108</v>
       </c>
       <c r="L93"/>
-      <c r="M93"/>
-    </row>
-    <row r="94" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+      <c r="M93" s="23"/>
+      <c r="N93" s="23"/>
+      <c r="O93" s="23"/>
+      <c r="P93" s="23"/>
+      <c r="Q93" s="23"/>
+      <c r="R93" s="23"/>
+      <c r="S93" s="23"/>
+      <c r="T93" s="23"/>
+      <c r="U93" s="23"/>
+      <c r="V93" s="23"/>
+      <c r="W93" s="23"/>
+      <c r="X93" s="23"/>
+      <c r="Y93" s="23"/>
+      <c r="Z93" s="23"/>
+      <c r="AA93" s="23"/>
+      <c r="AB93" s="23"/>
+      <c r="AC93" s="23"/>
+      <c r="AD93" s="23"/>
+      <c r="AE93" s="23"/>
+      <c r="AF93" s="23"/>
+      <c r="AG93" s="23"/>
+      <c r="AH93" s="23"/>
+      <c r="AI93" s="23"/>
+    </row>
+    <row r="94" spans="1:35" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="21" t="s">
         <v>158</v>
       </c>
       <c r="B94" t="s">
@@ -13790,7 +14388,7 @@
       <c r="C94">
         <v>10084</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="21" t="s">
         <v>372</v>
       </c>
       <c r="E94" t="s">
@@ -13815,9 +14413,33 @@
         <v>43313.690972222219</v>
       </c>
       <c r="L94"/>
-      <c r="M94"/>
-    </row>
-    <row r="95" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M94" s="23"/>
+      <c r="N94" t="s">
+        <v>441</v>
+      </c>
+      <c r="O94" s="23"/>
+      <c r="P94" s="23"/>
+      <c r="Q94" s="23"/>
+      <c r="R94" s="23"/>
+      <c r="S94" s="23"/>
+      <c r="T94" s="23"/>
+      <c r="U94" s="23"/>
+      <c r="V94" s="23"/>
+      <c r="W94" s="23"/>
+      <c r="X94" s="23"/>
+      <c r="Y94" s="23"/>
+      <c r="Z94" s="23"/>
+      <c r="AA94" s="23"/>
+      <c r="AB94" s="23"/>
+      <c r="AC94" s="23"/>
+      <c r="AD94" s="23"/>
+      <c r="AE94" s="23"/>
+      <c r="AF94" s="23"/>
+      <c r="AG94" s="23"/>
+      <c r="AH94" s="23"/>
+      <c r="AI94" s="23"/>
+    </row>
+    <row r="95" spans="1:35" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>158</v>
       </c>
@@ -13852,10 +14474,32 @@
         <v>43304.718055555553</v>
       </c>
       <c r="L95"/>
-      <c r="M95"/>
-    </row>
-    <row r="96" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
+      <c r="M95" s="23"/>
+      <c r="N95" s="23"/>
+      <c r="O95" s="23"/>
+      <c r="P95" s="23"/>
+      <c r="Q95" s="23"/>
+      <c r="R95" s="23"/>
+      <c r="S95" s="23"/>
+      <c r="T95" s="23"/>
+      <c r="U95" s="23"/>
+      <c r="V95" s="23"/>
+      <c r="W95" s="23"/>
+      <c r="X95" s="23"/>
+      <c r="Y95" s="23"/>
+      <c r="Z95" s="23"/>
+      <c r="AA95" s="23"/>
+      <c r="AB95" s="23"/>
+      <c r="AC95" s="23"/>
+      <c r="AD95" s="23"/>
+      <c r="AE95" s="23"/>
+      <c r="AF95" s="23"/>
+      <c r="AG95" s="23"/>
+      <c r="AH95" s="23"/>
+      <c r="AI95" s="23"/>
+    </row>
+    <row r="96" spans="1:35" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="21" t="s">
         <v>158</v>
       </c>
       <c r="B96" t="s">
@@ -13864,7 +14508,7 @@
       <c r="C96">
         <v>10086</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="21" t="s">
         <v>368</v>
       </c>
       <c r="E96" t="s">
@@ -13889,9 +14533,33 @@
         <v>43304.726388888892</v>
       </c>
       <c r="L96"/>
-      <c r="M96"/>
-    </row>
-    <row r="97" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M96" s="23"/>
+      <c r="N96" t="s">
+        <v>465</v>
+      </c>
+      <c r="O96" s="23"/>
+      <c r="P96" s="23"/>
+      <c r="Q96" s="23"/>
+      <c r="R96" s="23"/>
+      <c r="S96" s="23"/>
+      <c r="T96" s="23"/>
+      <c r="U96" s="23"/>
+      <c r="V96" s="23"/>
+      <c r="W96" s="23"/>
+      <c r="X96" s="23"/>
+      <c r="Y96" s="23"/>
+      <c r="Z96" s="23"/>
+      <c r="AA96" s="23"/>
+      <c r="AB96" s="23"/>
+      <c r="AC96" s="23"/>
+      <c r="AD96" s="23"/>
+      <c r="AE96" s="23"/>
+      <c r="AF96" s="23"/>
+      <c r="AG96" s="23"/>
+      <c r="AH96" s="23"/>
+      <c r="AI96" s="23"/>
+    </row>
+    <row r="97" spans="1:35" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>158</v>
       </c>
@@ -13924,10 +14592,34 @@
         <v>43305.89166666667</v>
       </c>
       <c r="L97"/>
-      <c r="M97"/>
-    </row>
-    <row r="98" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+      <c r="M97" s="23"/>
+      <c r="N97" t="s">
+        <v>466</v>
+      </c>
+      <c r="O97" s="23"/>
+      <c r="P97" s="23"/>
+      <c r="Q97" s="23"/>
+      <c r="R97" s="23"/>
+      <c r="S97" s="23"/>
+      <c r="T97" s="23"/>
+      <c r="U97" s="23"/>
+      <c r="V97" s="23"/>
+      <c r="W97" s="23"/>
+      <c r="X97" s="23"/>
+      <c r="Y97" s="23"/>
+      <c r="Z97" s="23"/>
+      <c r="AA97" s="23"/>
+      <c r="AB97" s="23"/>
+      <c r="AC97" s="23"/>
+      <c r="AD97" s="23"/>
+      <c r="AE97" s="23"/>
+      <c r="AF97" s="23"/>
+      <c r="AG97" s="23"/>
+      <c r="AH97" s="23"/>
+      <c r="AI97" s="23"/>
+    </row>
+    <row r="98" spans="1:35" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="21" t="s">
         <v>158</v>
       </c>
       <c r="B98" t="s">
@@ -13936,7 +14628,7 @@
       <c r="C98">
         <v>10090</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="21" t="s">
         <v>364</v>
       </c>
       <c r="E98" t="s">
@@ -13959,9 +14651,31 @@
         <v>43310.668749999997</v>
       </c>
       <c r="L98"/>
-      <c r="M98"/>
-    </row>
-    <row r="99" spans="1:13" s="10" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M98" s="23"/>
+      <c r="N98" s="23"/>
+      <c r="O98" s="23"/>
+      <c r="P98" s="23"/>
+      <c r="Q98" s="23"/>
+      <c r="R98" s="23"/>
+      <c r="S98" s="23"/>
+      <c r="T98" s="23"/>
+      <c r="U98" s="23"/>
+      <c r="V98" s="23"/>
+      <c r="W98" s="23"/>
+      <c r="X98" s="23"/>
+      <c r="Y98" s="23"/>
+      <c r="Z98" s="23"/>
+      <c r="AA98" s="23"/>
+      <c r="AB98" s="23"/>
+      <c r="AC98" s="23"/>
+      <c r="AD98" s="23"/>
+      <c r="AE98" s="23"/>
+      <c r="AF98" s="23"/>
+      <c r="AG98" s="23"/>
+      <c r="AH98" s="23"/>
+      <c r="AI98" s="23"/>
+    </row>
+    <row r="99" spans="1:35" s="10" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>158</v>
       </c>
@@ -13996,9 +14710,31 @@
         <v>43307.611805555556</v>
       </c>
       <c r="L99"/>
-      <c r="M99"/>
-    </row>
-    <row r="100" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M99" s="23"/>
+      <c r="N99" s="23"/>
+      <c r="O99" s="23"/>
+      <c r="P99" s="23"/>
+      <c r="Q99" s="23"/>
+      <c r="R99" s="23"/>
+      <c r="S99" s="23"/>
+      <c r="T99" s="23"/>
+      <c r="U99" s="23"/>
+      <c r="V99" s="23"/>
+      <c r="W99" s="23"/>
+      <c r="X99" s="23"/>
+      <c r="Y99" s="23"/>
+      <c r="Z99" s="23"/>
+      <c r="AA99" s="23"/>
+      <c r="AB99" s="23"/>
+      <c r="AC99" s="23"/>
+      <c r="AD99" s="23"/>
+      <c r="AE99" s="23"/>
+      <c r="AF99" s="23"/>
+      <c r="AG99" s="23"/>
+      <c r="AH99" s="23"/>
+      <c r="AI99" s="23"/>
+    </row>
+    <row r="100" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="7" t="s">
         <v>4</v>
       </c>
@@ -14011,8 +14747,31 @@
       <c r="H100" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M100" s="23"/>
+      <c r="N100" s="23"/>
+      <c r="O100" s="23"/>
+      <c r="P100" s="23"/>
+      <c r="Q100" s="23"/>
+      <c r="R100" s="23"/>
+      <c r="S100" s="23"/>
+      <c r="T100" s="23"/>
+      <c r="U100" s="23"/>
+      <c r="V100" s="23"/>
+      <c r="W100" s="23"/>
+      <c r="X100" s="23"/>
+      <c r="Y100" s="23"/>
+      <c r="Z100" s="23"/>
+      <c r="AA100" s="23"/>
+      <c r="AB100" s="23"/>
+      <c r="AC100" s="23"/>
+      <c r="AD100" s="23"/>
+      <c r="AE100" s="23"/>
+      <c r="AF100" s="23"/>
+      <c r="AG100" s="23"/>
+      <c r="AH100" s="23"/>
+      <c r="AI100" s="23"/>
+    </row>
+    <row r="101" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="7" t="s">
         <v>6</v>
       </c>
@@ -14025,8 +14784,31 @@
       <c r="H101" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M101" s="23"/>
+      <c r="N101" s="23"/>
+      <c r="O101" s="23"/>
+      <c r="P101" s="23"/>
+      <c r="Q101" s="23"/>
+      <c r="R101" s="23"/>
+      <c r="S101" s="23"/>
+      <c r="T101" s="23"/>
+      <c r="U101" s="23"/>
+      <c r="V101" s="23"/>
+      <c r="W101" s="23"/>
+      <c r="X101" s="23"/>
+      <c r="Y101" s="23"/>
+      <c r="Z101" s="23"/>
+      <c r="AA101" s="23"/>
+      <c r="AB101" s="23"/>
+      <c r="AC101" s="23"/>
+      <c r="AD101" s="23"/>
+      <c r="AE101" s="23"/>
+      <c r="AF101" s="23"/>
+      <c r="AG101" s="23"/>
+      <c r="AH101" s="23"/>
+      <c r="AI101" s="23"/>
+    </row>
+    <row r="102" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
         <v>6</v>
       </c>
@@ -14039,8 +14821,31 @@
       <c r="H102" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M102" s="23"/>
+      <c r="N102" s="23"/>
+      <c r="O102" s="23"/>
+      <c r="P102" s="23"/>
+      <c r="Q102" s="23"/>
+      <c r="R102" s="23"/>
+      <c r="S102" s="23"/>
+      <c r="T102" s="23"/>
+      <c r="U102" s="23"/>
+      <c r="V102" s="23"/>
+      <c r="W102" s="23"/>
+      <c r="X102" s="23"/>
+      <c r="Y102" s="23"/>
+      <c r="Z102" s="23"/>
+      <c r="AA102" s="23"/>
+      <c r="AB102" s="23"/>
+      <c r="AC102" s="23"/>
+      <c r="AD102" s="23"/>
+      <c r="AE102" s="23"/>
+      <c r="AF102" s="23"/>
+      <c r="AG102" s="23"/>
+      <c r="AH102" s="23"/>
+      <c r="AI102" s="23"/>
+    </row>
+    <row r="103" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
         <v>6</v>
       </c>
@@ -14053,8 +14858,31 @@
       <c r="H103" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M103" s="23"/>
+      <c r="N103" s="23"/>
+      <c r="O103" s="23"/>
+      <c r="P103" s="23"/>
+      <c r="Q103" s="23"/>
+      <c r="R103" s="23"/>
+      <c r="S103" s="23"/>
+      <c r="T103" s="23"/>
+      <c r="U103" s="23"/>
+      <c r="V103" s="23"/>
+      <c r="W103" s="23"/>
+      <c r="X103" s="23"/>
+      <c r="Y103" s="23"/>
+      <c r="Z103" s="23"/>
+      <c r="AA103" s="23"/>
+      <c r="AB103" s="23"/>
+      <c r="AC103" s="23"/>
+      <c r="AD103" s="23"/>
+      <c r="AE103" s="23"/>
+      <c r="AF103" s="23"/>
+      <c r="AG103" s="23"/>
+      <c r="AH103" s="23"/>
+      <c r="AI103" s="23"/>
+    </row>
+    <row r="104" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="8" t="s">
         <v>217</v>
       </c>
@@ -14068,7 +14896,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
         <v>6</v>
       </c>
@@ -14082,7 +14910,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
         <v>11</v>
       </c>
@@ -14096,7 +14924,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="8" t="s">
         <v>217</v>
       </c>
@@ -14110,7 +14938,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="7" t="s">
         <v>4</v>
       </c>
@@ -14124,7 +14952,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="7" t="s">
         <v>15</v>
       </c>
@@ -14138,7 +14966,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="7" t="s">
         <v>4</v>
       </c>
@@ -14152,7 +14980,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="7" t="s">
         <v>218</v>
       </c>
@@ -14166,7 +14994,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="7" t="s">
         <v>218</v>
       </c>
@@ -14215,10 +15043,11 @@
       <c r="D115" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="F115" s="21"/>
       <c r="G115" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H115" t="s">
+      <c r="H115" s="21" t="s">
         <v>399</v>
       </c>
     </row>
@@ -14229,10 +15058,11 @@
       <c r="D116" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="F116" s="21"/>
       <c r="G116" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H116" t="s">
+      <c r="H116" s="21" t="s">
         <v>399</v>
       </c>
     </row>
@@ -14243,10 +15073,11 @@
       <c r="D117" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="F117" s="21"/>
       <c r="G117" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H117" t="s">
+      <c r="H117" s="21" t="s">
         <v>399</v>
       </c>
     </row>
@@ -14327,10 +15158,11 @@
       <c r="D123" s="7" t="s">
         <v>26</v>
       </c>
+      <c r="F123" s="21"/>
       <c r="G123" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H123" t="s">
+      <c r="H123" s="21" t="s">
         <v>399</v>
       </c>
     </row>
@@ -14341,10 +15173,11 @@
       <c r="D124" s="7" t="s">
         <v>26</v>
       </c>
+      <c r="F124" s="21"/>
       <c r="G124" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H124" t="s">
+      <c r="H124" s="21" t="s">
         <v>399</v>
       </c>
     </row>
@@ -14355,10 +15188,11 @@
       <c r="D125" s="7" t="s">
         <v>27</v>
       </c>
+      <c r="F125" s="21"/>
       <c r="G125" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H125" t="s">
+      <c r="H125" s="21" t="s">
         <v>399</v>
       </c>
     </row>
@@ -14369,10 +15203,11 @@
       <c r="D126" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="F126" s="21"/>
       <c r="G126" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H126" t="s">
+      <c r="H126" s="21" t="s">
         <v>399</v>
       </c>
     </row>
@@ -14383,10 +15218,11 @@
       <c r="D127" s="7" t="s">
         <v>29</v>
       </c>
+      <c r="F127" s="21"/>
       <c r="G127" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H127" t="s">
+      <c r="H127" s="21" t="s">
         <v>399</v>
       </c>
     </row>
@@ -14411,10 +15247,11 @@
       <c r="D129" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="F129" s="21"/>
       <c r="G129" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H129" t="s">
+      <c r="H129" s="21" t="s">
         <v>399</v>
       </c>
     </row>
@@ -14439,10 +15276,11 @@
       <c r="D131" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="F131" s="21"/>
       <c r="G131" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H131" t="s">
+      <c r="H131" s="21" t="s">
         <v>399</v>
       </c>
     </row>
@@ -14481,10 +15319,11 @@
       <c r="D134" s="7" t="s">
         <v>38</v>
       </c>
+      <c r="F134" s="21"/>
       <c r="G134" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H134" t="s">
+      <c r="H134" s="21" t="s">
         <v>399</v>
       </c>
     </row>
@@ -14495,10 +15334,11 @@
       <c r="D135" s="7" t="s">
         <v>40</v>
       </c>
+      <c r="F135" s="21"/>
       <c r="G135" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H135" t="s">
+      <c r="H135" s="21" t="s">
         <v>399</v>
       </c>
     </row>
@@ -14509,10 +15349,11 @@
       <c r="D136" s="7" t="s">
         <v>26</v>
       </c>
+      <c r="F136" s="21"/>
       <c r="G136" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H136" t="s">
+      <c r="H136" s="21" t="s">
         <v>399</v>
       </c>
     </row>
@@ -14523,10 +15364,11 @@
       <c r="D137" s="7" t="s">
         <v>41</v>
       </c>
+      <c r="F137" s="21"/>
       <c r="G137" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H137" t="s">
+      <c r="H137" s="21" t="s">
         <v>399</v>
       </c>
     </row>
@@ -14596,7 +15438,7 @@
       <c r="G142" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H142" t="s">
+      <c r="H142" s="21" t="s">
         <v>399</v>
       </c>
     </row>
@@ -14624,7 +15466,7 @@
       <c r="G144" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H144" t="s">
+      <c r="H144" s="21" t="s">
         <v>399</v>
       </c>
     </row>
@@ -14638,7 +15480,7 @@
       <c r="G145" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H145" t="s">
+      <c r="H145" s="21" t="s">
         <v>399</v>
       </c>
     </row>
@@ -14694,7 +15536,7 @@
       <c r="G149" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H149" t="s">
+      <c r="H149" s="21" t="s">
         <v>399</v>
       </c>
     </row>
@@ -14708,7 +15550,7 @@
       <c r="G150" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H150" t="s">
+      <c r="H150" s="21" t="s">
         <v>399</v>
       </c>
     </row>
@@ -14722,7 +15564,7 @@
       <c r="G151" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H151" t="s">
+      <c r="H151" s="21" t="s">
         <v>399</v>
       </c>
     </row>
@@ -14806,7 +15648,7 @@
       <c r="G157" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H157" t="s">
+      <c r="H157" s="21" t="s">
         <v>399</v>
       </c>
     </row>
@@ -14834,7 +15676,7 @@
       <c r="G159" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H159" t="s">
+      <c r="H159" s="21" t="s">
         <v>399</v>
       </c>
     </row>
@@ -14876,7 +15718,7 @@
       <c r="G162" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H162" t="s">
+      <c r="H162" s="21" t="s">
         <v>399</v>
       </c>
     </row>
@@ -14890,7 +15732,7 @@
       <c r="G163" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H163" t="s">
+      <c r="H163" s="21" t="s">
         <v>399</v>
       </c>
     </row>
@@ -14904,7 +15746,7 @@
       <c r="G164" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H164" t="s">
+      <c r="H164" s="21" t="s">
         <v>399</v>
       </c>
     </row>
@@ -15002,7 +15844,7 @@
       <c r="G171" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H171" t="s">
+      <c r="H171" s="21" t="s">
         <v>399</v>
       </c>
     </row>
@@ -15030,7 +15872,7 @@
       <c r="G173" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H173" t="s">
+      <c r="H173" s="21" t="s">
         <v>399</v>
       </c>
     </row>
@@ -15058,7 +15900,7 @@
       <c r="G175" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H175" t="s">
+      <c r="H175" s="21" t="s">
         <v>399</v>
       </c>
     </row>
@@ -15072,7 +15914,7 @@
       <c r="G176" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H176" t="s">
+      <c r="H176" s="21" t="s">
         <v>399</v>
       </c>
     </row>
@@ -15408,7 +16250,7 @@
       <c r="G200" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H200" t="s">
+      <c r="H200" s="21" t="s">
         <v>399</v>
       </c>
     </row>
@@ -15450,7 +16292,7 @@
       <c r="G203" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H203" t="s">
+      <c r="H203" s="21" t="s">
         <v>399</v>
       </c>
     </row>
@@ -15478,7 +16320,7 @@
       <c r="G205" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H205" t="s">
+      <c r="H205" s="21" t="s">
         <v>399</v>
       </c>
     </row>
@@ -15492,7 +16334,7 @@
       <c r="G206" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H206" t="s">
+      <c r="H206" s="21" t="s">
         <v>399</v>
       </c>
     </row>
@@ -15539,7 +16381,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M209"/>
+  <autoFilter ref="A1:AI1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/defect_category_2.xlsx
+++ b/defect_category_2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\share_doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SDET_CODE\share_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9345" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18885" windowHeight="8580" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="15" r:id="rId1"/>
@@ -27,9 +27,9 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId9"/>
-    <pivotCache cacheId="16" r:id="rId10"/>
-    <pivotCache cacheId="17" r:id="rId11"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
+    <pivotCache cacheId="1" r:id="rId10"/>
+    <pivotCache cacheId="2" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1867,6 +1867,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1924,11 +1925,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="328403016"/>
-        <c:axId val="328403408"/>
+        <c:axId val="139370624"/>
+        <c:axId val="139371016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="328403016"/>
+        <c:axId val="139370624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1971,7 +1972,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328403408"/>
+        <c:crossAx val="139371016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1979,7 +1980,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="328403408"/>
+        <c:axId val="139371016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2030,7 +2031,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328403016"/>
+        <c:crossAx val="139370624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2169,11 +2170,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="328404192"/>
-        <c:axId val="328404584"/>
+        <c:axId val="139371800"/>
+        <c:axId val="139372192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="328404192"/>
+        <c:axId val="139371800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2216,7 +2217,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328404584"/>
+        <c:crossAx val="139372192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2224,7 +2225,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="328404584"/>
+        <c:axId val="139372192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2275,7 +2276,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328404192"/>
+        <c:crossAx val="139371800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2370,6 +2371,48 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.0205628340642955E-16"/>
+                  <c:y val="9.2684527048008756E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.1028141703214773E-17"/>
+                  <c:y val="1.3902679057201314E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2384,12 +2427,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2409,6 +2449,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2506,6 +2547,90 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.5667706746904142E-3"/>
+                  <c:y val="-1.3902679057201399E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-9.2684527048009606E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.7833853373452583E-3"/>
+                  <c:y val="-1.3902679057201314E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-1.8536905409601758E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2520,12 +2645,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2545,6 +2667,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2627,11 +2750,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="271098352"/>
-        <c:axId val="271098744"/>
+        <c:axId val="139372976"/>
+        <c:axId val="139373368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="271098352"/>
+        <c:axId val="139372976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2659,12 +2782,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2674,7 +2794,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="271098744"/>
+        <c:crossAx val="139373368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2682,7 +2802,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="271098744"/>
+        <c:axId val="139373368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2733,7 +2853,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="271098352"/>
+        <c:crossAx val="139372976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2747,6 +2867,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2760,12 +2881,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2875,7 +2993,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2894,7 +3014,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -3034,7 +3156,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3053,7 +3177,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3072,7 +3198,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3091,7 +3219,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3110,7 +3240,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -3259,7 +3391,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3278,7 +3412,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3297,7 +3433,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3316,7 +3454,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3335,7 +3475,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -3454,11 +3596,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="271099528"/>
-        <c:axId val="271099920"/>
+        <c:axId val="140047920"/>
+        <c:axId val="140048312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="271099528"/>
+        <c:axId val="140047920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3501,7 +3643,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="271099920"/>
+        <c:crossAx val="140048312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3509,7 +3651,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="271099920"/>
+        <c:axId val="140048312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3560,7 +3702,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="271099528"/>
+        <c:crossAx val="140047920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3574,6 +3716,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3741,11 +3884,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="271100704"/>
-        <c:axId val="271101096"/>
+        <c:axId val="140051056"/>
+        <c:axId val="140646736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="271100704"/>
+        <c:axId val="140051056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3773,12 +3916,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3788,7 +3928,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="271101096"/>
+        <c:crossAx val="140646736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3796,7 +3936,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="271101096"/>
+        <c:axId val="140646736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3832,7 +3972,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3847,7 +3987,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="271100704"/>
+        <c:crossAx val="140051056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3991,6 +4131,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4049,11 +4190,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="399109104"/>
-        <c:axId val="399109496"/>
+        <c:axId val="140647520"/>
+        <c:axId val="140647912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="399109104"/>
+        <c:axId val="140647520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4096,7 +4237,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399109496"/>
+        <c:crossAx val="140647912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4104,7 +4245,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="399109496"/>
+        <c:axId val="140647912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4155,7 +4296,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399109104"/>
+        <c:crossAx val="140647520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7634,16 +7775,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9647,7 +9788,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -9696,7 +9837,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:H9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -9779,7 +9920,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블11" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블11" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -9836,7 +9977,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -10295,8 +10436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="D16" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10604,8 +10745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10723,15 +10864,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI209"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.25" customWidth="1"/>
     <col min="3" max="3" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="118.25" customWidth="1"/>
+    <col min="4" max="4" width="96.625" customWidth="1"/>
     <col min="5" max="5" width="17.25" customWidth="1"/>
     <col min="6" max="6" width="16.625" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>

--- a/defect_category_2.xlsx
+++ b/defect_category_2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SDET_CODE\share_doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\share_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18885" windowHeight="8580" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18885" windowHeight="8580" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="15" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Code Review" sheetId="11" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Code Review'!$B$3:$I$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Code Review'!$B$3:$J$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">통합!$A$1:$AI$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2844" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2844" uniqueCount="467">
   <si>
     <t>SonarQube</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -714,10 +714,6 @@
   </si>
   <si>
     <t>bad practice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>critical</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1867,7 +1863,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1925,11 +1920,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="139370624"/>
-        <c:axId val="139371016"/>
+        <c:axId val="106980040"/>
+        <c:axId val="106980424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="139370624"/>
+        <c:axId val="106980040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1972,7 +1967,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139371016"/>
+        <c:crossAx val="106980424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1980,7 +1975,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139371016"/>
+        <c:axId val="106980424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2031,7 +2026,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139370624"/>
+        <c:crossAx val="106980040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2170,11 +2165,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="139371800"/>
-        <c:axId val="139372192"/>
+        <c:axId val="270956152"/>
+        <c:axId val="271072840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="139371800"/>
+        <c:axId val="270956152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2217,7 +2212,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139372192"/>
+        <c:crossAx val="271072840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2225,7 +2220,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139372192"/>
+        <c:axId val="271072840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2276,7 +2271,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139371800"/>
+        <c:crossAx val="270956152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2387,9 +2382,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2408,9 +2401,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -2449,7 +2440,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2563,9 +2553,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2584,9 +2572,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2605,9 +2591,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2626,9 +2610,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -2667,7 +2649,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2750,11 +2731,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="139372976"/>
-        <c:axId val="139373368"/>
+        <c:axId val="271122120"/>
+        <c:axId val="271073840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="139372976"/>
+        <c:axId val="271122120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2794,7 +2775,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139373368"/>
+        <c:crossAx val="271073840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2802,7 +2783,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139373368"/>
+        <c:axId val="271073840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2853,7 +2834,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139372976"/>
+        <c:crossAx val="271122120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2867,7 +2848,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2993,9 +2973,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3014,9 +2992,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -3156,9 +3132,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3177,9 +3151,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3198,9 +3170,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3219,9 +3189,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3240,9 +3208,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -3391,9 +3357,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3412,9 +3376,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3433,9 +3395,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3454,9 +3414,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3475,9 +3433,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -3596,11 +3552,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="140047920"/>
-        <c:axId val="140048312"/>
+        <c:axId val="271887656"/>
+        <c:axId val="271915112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="140047920"/>
+        <c:axId val="271887656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3643,7 +3599,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140048312"/>
+        <c:crossAx val="271915112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3651,7 +3607,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140048312"/>
+        <c:axId val="271915112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3702,7 +3658,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140047920"/>
+        <c:crossAx val="271887656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3716,7 +3672,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3884,11 +3839,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="140051056"/>
-        <c:axId val="140646736"/>
+        <c:axId val="271857568"/>
+        <c:axId val="271605096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="140051056"/>
+        <c:axId val="271857568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3928,7 +3883,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140646736"/>
+        <c:crossAx val="271605096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3936,7 +3891,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140646736"/>
+        <c:axId val="271605096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3987,7 +3942,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140051056"/>
+        <c:crossAx val="271857568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4190,11 +4145,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="140647520"/>
-        <c:axId val="140647912"/>
+        <c:axId val="171268480"/>
+        <c:axId val="271727528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="140647520"/>
+        <c:axId val="171268480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4237,7 +4192,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140647912"/>
+        <c:crossAx val="271727528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4245,7 +4200,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140647912"/>
+        <c:axId val="271727528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4296,7 +4251,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140647520"/>
+        <c:crossAx val="171268480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10333,35 +10288,35 @@
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B4" s="13">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>386</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B5" s="13">
         <v>48</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F5" s="15">
         <v>8</v>
@@ -10369,13 +10324,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B6" s="13">
         <v>149</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F6" s="15">
         <v>48</v>
@@ -10383,11 +10338,11 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B7" s="13"/>
       <c r="E7" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F7" s="15">
         <v>149</v>
@@ -10395,7 +10350,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B8" s="13">
         <v>205</v>
@@ -10403,15 +10358,15 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F12">
         <v>50</v>
@@ -10419,7 +10374,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F13">
         <v>36.5</v>
@@ -10449,24 +10404,24 @@
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C4" t="s">
         <v>161</v>
       </c>
       <c r="D4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E4" t="s">
         <v>165</v>
@@ -10475,15 +10430,15 @@
         <v>206</v>
       </c>
       <c r="G4" t="s">
+        <v>382</v>
+      </c>
+      <c r="H4" t="s">
         <v>383</v>
-      </c>
-      <c r="H4" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B5" s="13">
         <v>1</v>
@@ -10501,7 +10456,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B6" s="13">
         <v>22</v>
@@ -10525,7 +10480,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B7" s="13">
         <v>15</v>
@@ -10549,7 +10504,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -10561,7 +10516,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B9" s="13">
         <v>38</v>
@@ -10585,18 +10540,18 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>403</v>
-      </c>
       <c r="D20" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C21" s="19">
         <v>11</v>
@@ -10607,7 +10562,7 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C22" s="19">
         <v>30</v>
@@ -10618,7 +10573,7 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C23" s="19">
         <v>16</v>
@@ -10629,7 +10584,7 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C24" s="19">
         <v>64</v>
@@ -10640,7 +10595,7 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="18" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C25" s="19">
         <v>10</v>
@@ -10651,7 +10606,7 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="18" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C26" s="19">
         <v>37</v>
@@ -10662,27 +10617,27 @@
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>213</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F37" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="G37" s="16" t="s">
         <v>404</v>
-      </c>
-      <c r="G37" s="16" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="13">
@@ -10696,7 +10651,7 @@
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C39" s="13">
         <v>2</v>
@@ -10716,7 +10671,7 @@
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C40" s="13">
         <v>89</v>
@@ -10745,7 +10700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -10757,10 +10712,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -10770,27 +10725,27 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B3" t="s">
+        <v>384</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>386</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B4" s="13">
         <v>2</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F4" s="15">
         <v>1</v>
@@ -10798,13 +10753,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B5" s="13">
         <v>89</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F5" s="15">
         <v>22</v>
@@ -10812,13 +10767,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B6" s="13">
         <v>91</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F6" s="15">
         <v>15</v>
@@ -10826,20 +10781,20 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E17" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E18" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F18" s="15">
         <v>2</v>
@@ -10847,7 +10802,7 @@
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E19" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F19" s="15">
         <v>89</v>
@@ -10864,8 +10819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI209"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F134" sqref="F134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10924,7 +10879,7 @@
         <v>157</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -10932,13 +10887,13 @@
         <v>158</v>
       </c>
       <c r="B2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C2">
         <v>10099</v>
       </c>
       <c r="D2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E2" t="s">
         <v>172</v>
@@ -10947,7 +10902,7 @@
         <v>195</v>
       </c>
       <c r="G2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H2" t="s">
         <v>165</v>
@@ -10959,7 +10914,7 @@
         <v>43313.69027777778</v>
       </c>
       <c r="N2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -10967,13 +10922,13 @@
         <v>158</v>
       </c>
       <c r="B3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C3">
         <v>10107</v>
       </c>
       <c r="D3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E3" t="s">
         <v>172</v>
@@ -10982,7 +10937,7 @@
         <v>195</v>
       </c>
       <c r="G3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H3" t="s">
         <v>165</v>
@@ -10994,7 +10949,7 @@
         <v>43313.69027777778</v>
       </c>
       <c r="N3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -11002,13 +10957,13 @@
         <v>158</v>
       </c>
       <c r="B4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C4">
         <v>10108</v>
       </c>
       <c r="D4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E4" t="s">
         <v>195</v>
@@ -11017,7 +10972,7 @@
         <v>195</v>
       </c>
       <c r="G4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H4" t="s">
         <v>165</v>
@@ -11032,7 +10987,7 @@
         <v>43309.468055555553</v>
       </c>
       <c r="N4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -11040,13 +10995,13 @@
         <v>158</v>
       </c>
       <c r="B5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C5">
         <v>10109</v>
       </c>
       <c r="D5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E5" t="s">
         <v>172</v>
@@ -11055,7 +11010,7 @@
         <v>195</v>
       </c>
       <c r="G5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H5" t="s">
         <v>165</v>
@@ -11067,7 +11022,7 @@
         <v>43313.689583333333</v>
       </c>
       <c r="N5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -11075,13 +11030,13 @@
         <v>158</v>
       </c>
       <c r="B6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C6">
         <v>10110</v>
       </c>
       <c r="D6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E6" t="s">
         <v>168</v>
@@ -11090,7 +11045,7 @@
         <v>195</v>
       </c>
       <c r="G6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H6" t="s">
         <v>165</v>
@@ -11105,7 +11060,7 @@
         <v>43313.689583333333</v>
       </c>
       <c r="N6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -11113,13 +11068,13 @@
         <v>158</v>
       </c>
       <c r="B7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C7">
         <v>10111</v>
       </c>
       <c r="D7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E7" t="s">
         <v>168</v>
@@ -11128,7 +11083,7 @@
         <v>195</v>
       </c>
       <c r="G7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H7" t="s">
         <v>165</v>
@@ -11143,7 +11098,7 @@
         <v>43313.689583333333</v>
       </c>
       <c r="N7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -11151,25 +11106,25 @@
         <v>158</v>
       </c>
       <c r="B8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C8">
         <v>10113</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E8" t="s">
+        <v>314</v>
+      </c>
+      <c r="F8" t="s">
+        <v>314</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="H8" t="s">
         <v>315</v>
-      </c>
-      <c r="F8" t="s">
-        <v>315</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="H8" t="s">
-        <v>316</v>
       </c>
       <c r="I8" t="s">
         <v>162</v>
@@ -11186,25 +11141,25 @@
         <v>158</v>
       </c>
       <c r="B9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C9">
         <v>10114</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E9" t="s">
+        <v>314</v>
+      </c>
+      <c r="F9" t="s">
+        <v>314</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="H9" t="s">
         <v>315</v>
-      </c>
-      <c r="F9" t="s">
-        <v>315</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="H9" t="s">
-        <v>316</v>
       </c>
       <c r="I9" t="s">
         <v>162</v>
@@ -11221,25 +11176,25 @@
         <v>158</v>
       </c>
       <c r="B10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C10">
         <v>10115</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E10" t="s">
+        <v>314</v>
+      </c>
+      <c r="F10" t="s">
+        <v>314</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="H10" t="s">
         <v>315</v>
-      </c>
-      <c r="F10" t="s">
-        <v>315</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>374</v>
-      </c>
-      <c r="H10" t="s">
-        <v>316</v>
       </c>
       <c r="I10" t="s">
         <v>162</v>
@@ -11256,25 +11211,25 @@
         <v>158</v>
       </c>
       <c r="B11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C11">
         <v>10116</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E11" t="s">
+        <v>314</v>
+      </c>
+      <c r="F11" t="s">
+        <v>314</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="H11" t="s">
         <v>315</v>
-      </c>
-      <c r="F11" t="s">
-        <v>315</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>374</v>
-      </c>
-      <c r="H11" t="s">
-        <v>316</v>
       </c>
       <c r="I11" t="s">
         <v>162</v>
@@ -11291,25 +11246,25 @@
         <v>158</v>
       </c>
       <c r="B12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C12">
         <v>10119</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E12" t="s">
+        <v>314</v>
+      </c>
+      <c r="F12" t="s">
+        <v>314</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="H12" t="s">
         <v>315</v>
-      </c>
-      <c r="F12" t="s">
-        <v>315</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>374</v>
-      </c>
-      <c r="H12" t="s">
-        <v>316</v>
       </c>
       <c r="I12" t="s">
         <v>162</v>
@@ -11326,13 +11281,13 @@
         <v>158</v>
       </c>
       <c r="B13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C13">
         <v>10120</v>
       </c>
       <c r="D13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E13" t="s">
         <v>136</v>
@@ -11341,7 +11296,7 @@
         <v>195</v>
       </c>
       <c r="G13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H13" t="s">
         <v>165</v>
@@ -11353,7 +11308,7 @@
         <v>43313.689583333333</v>
       </c>
       <c r="N13" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -11361,13 +11316,13 @@
         <v>158</v>
       </c>
       <c r="B14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C14">
         <v>10121</v>
       </c>
       <c r="D14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E14" t="s">
         <v>136</v>
@@ -11376,7 +11331,7 @@
         <v>195</v>
       </c>
       <c r="G14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H14" t="s">
         <v>165</v>
@@ -11388,7 +11343,7 @@
         <v>43313.689583333333</v>
       </c>
       <c r="N14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -11396,13 +11351,13 @@
         <v>158</v>
       </c>
       <c r="B15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C15">
         <v>10123</v>
       </c>
       <c r="D15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E15" t="s">
         <v>195</v>
@@ -11411,7 +11366,7 @@
         <v>195</v>
       </c>
       <c r="G15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H15" t="s">
         <v>165</v>
@@ -11426,7 +11381,7 @@
         <v>43309.468055555553</v>
       </c>
       <c r="N15" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -11434,25 +11389,25 @@
         <v>158</v>
       </c>
       <c r="B16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C16">
         <v>10124</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E16" t="s">
+        <v>314</v>
+      </c>
+      <c r="F16" t="s">
+        <v>314</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="H16" t="s">
         <v>315</v>
-      </c>
-      <c r="F16" t="s">
-        <v>315</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="H16" t="s">
-        <v>316</v>
       </c>
       <c r="I16" t="s">
         <v>162</v>
@@ -11469,25 +11424,25 @@
         <v>158</v>
       </c>
       <c r="B17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C17">
         <v>10125</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I17" t="s">
         <v>162</v>
@@ -11504,25 +11459,25 @@
         <v>158</v>
       </c>
       <c r="B18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C18">
         <v>10126</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E18" t="s">
+        <v>314</v>
+      </c>
+      <c r="F18" t="s">
+        <v>314</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="H18" t="s">
         <v>315</v>
-      </c>
-      <c r="F18" t="s">
-        <v>315</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="H18" t="s">
-        <v>316</v>
       </c>
       <c r="I18" t="s">
         <v>162</v>
@@ -11539,25 +11494,25 @@
         <v>158</v>
       </c>
       <c r="B19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C19">
         <v>10128</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E19" t="s">
+        <v>314</v>
+      </c>
+      <c r="F19" t="s">
+        <v>314</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="H19" t="s">
         <v>315</v>
-      </c>
-      <c r="F19" t="s">
-        <v>315</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="H19" t="s">
-        <v>316</v>
       </c>
       <c r="I19" t="s">
         <v>162</v>
@@ -11574,25 +11529,25 @@
         <v>158</v>
       </c>
       <c r="B20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C20">
         <v>10129</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E20" t="s">
+        <v>314</v>
+      </c>
+      <c r="F20" t="s">
+        <v>314</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="H20" t="s">
         <v>315</v>
-      </c>
-      <c r="F20" t="s">
-        <v>315</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="H20" t="s">
-        <v>316</v>
       </c>
       <c r="I20" t="s">
         <v>162</v>
@@ -11609,25 +11564,25 @@
         <v>158</v>
       </c>
       <c r="B21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C21">
         <v>10130</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E21" t="s">
+        <v>314</v>
+      </c>
+      <c r="F21" t="s">
+        <v>314</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="H21" t="s">
         <v>315</v>
-      </c>
-      <c r="F21" t="s">
-        <v>315</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="H21" t="s">
-        <v>316</v>
       </c>
       <c r="I21" t="s">
         <v>162</v>
@@ -11644,25 +11599,25 @@
         <v>158</v>
       </c>
       <c r="B22" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C22">
         <v>10131</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E22" t="s">
+        <v>314</v>
+      </c>
+      <c r="F22" t="s">
+        <v>314</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="H22" t="s">
         <v>315</v>
-      </c>
-      <c r="F22" t="s">
-        <v>315</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="H22" t="s">
-        <v>316</v>
       </c>
       <c r="I22" t="s">
         <v>162</v>
@@ -11679,25 +11634,25 @@
         <v>158</v>
       </c>
       <c r="B23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C23">
         <v>10132</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E23" t="s">
+        <v>314</v>
+      </c>
+      <c r="F23" t="s">
+        <v>314</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="H23" t="s">
         <v>315</v>
-      </c>
-      <c r="F23" t="s">
-        <v>315</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="H23" t="s">
-        <v>316</v>
       </c>
       <c r="I23" t="s">
         <v>162</v>
@@ -11714,25 +11669,25 @@
         <v>158</v>
       </c>
       <c r="B24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C24">
         <v>10133</v>
       </c>
       <c r="D24" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="E24" t="s">
         <v>314</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
+        <v>314</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="H24" t="s">
         <v>315</v>
-      </c>
-      <c r="F24" t="s">
-        <v>315</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="H24" t="s">
-        <v>316</v>
       </c>
       <c r="I24" t="s">
         <v>162</v>
@@ -11749,13 +11704,13 @@
         <v>158</v>
       </c>
       <c r="B25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C25">
         <v>10140</v>
       </c>
       <c r="D25" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E25" t="s">
         <v>195</v>
@@ -11764,7 +11719,7 @@
         <v>195</v>
       </c>
       <c r="G25" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H25" t="s">
         <v>165</v>
@@ -11779,7 +11734,7 @@
         <v>43309.46875</v>
       </c>
       <c r="N25" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
@@ -11787,13 +11742,13 @@
         <v>158</v>
       </c>
       <c r="B26" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C26">
         <v>10141</v>
       </c>
       <c r="D26" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E26" t="s">
         <v>172</v>
@@ -11802,7 +11757,7 @@
         <v>195</v>
       </c>
       <c r="G26" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H26" t="s">
         <v>165</v>
@@ -11817,7 +11772,7 @@
         <v>43313.688888888886</v>
       </c>
       <c r="N26" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
@@ -11825,13 +11780,13 @@
         <v>158</v>
       </c>
       <c r="B27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C27">
         <v>10142</v>
       </c>
       <c r="D27" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E27" t="s">
         <v>195</v>
@@ -11840,7 +11795,7 @@
         <v>195</v>
       </c>
       <c r="G27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H27" t="s">
         <v>165</v>
@@ -11855,7 +11810,7 @@
         <v>43309.474999999999</v>
       </c>
       <c r="N27" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
@@ -11863,13 +11818,13 @@
         <v>158</v>
       </c>
       <c r="B28" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C28">
         <v>10143</v>
       </c>
       <c r="D28" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E28" t="s">
         <v>195</v>
@@ -11878,7 +11833,7 @@
         <v>195</v>
       </c>
       <c r="G28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H28" t="s">
         <v>165</v>
@@ -11893,7 +11848,7 @@
         <v>43309.474999999999</v>
       </c>
       <c r="N28" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
@@ -11901,13 +11856,13 @@
         <v>158</v>
       </c>
       <c r="B29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C29">
         <v>10144</v>
       </c>
       <c r="D29" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E29" t="s">
         <v>195</v>
@@ -11916,7 +11871,7 @@
         <v>195</v>
       </c>
       <c r="G29" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H29" t="s">
         <v>165</v>
@@ -11931,7 +11886,7 @@
         <v>43309.474999999999</v>
       </c>
       <c r="N29" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
@@ -11939,13 +11894,13 @@
         <v>158</v>
       </c>
       <c r="B30" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C30">
         <v>10145</v>
       </c>
       <c r="D30" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E30" t="s">
         <v>195</v>
@@ -11954,7 +11909,7 @@
         <v>195</v>
       </c>
       <c r="G30" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H30" t="s">
         <v>165</v>
@@ -11969,7 +11924,7 @@
         <v>43309.475694444445</v>
       </c>
       <c r="N30" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
@@ -11977,13 +11932,13 @@
         <v>158</v>
       </c>
       <c r="B31" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C31">
         <v>10150</v>
       </c>
       <c r="D31" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E31" t="s">
         <v>172</v>
@@ -11992,7 +11947,7 @@
         <v>195</v>
       </c>
       <c r="G31" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H31" t="s">
         <v>165</v>
@@ -12004,7 +11959,7 @@
         <v>43309.680555555555</v>
       </c>
       <c r="N31" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
@@ -12012,13 +11967,13 @@
         <v>158</v>
       </c>
       <c r="B32" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C32">
         <v>10151</v>
       </c>
       <c r="D32" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E32" t="s">
         <v>136</v>
@@ -12027,7 +11982,7 @@
         <v>195</v>
       </c>
       <c r="G32" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H32" t="s">
         <v>165</v>
@@ -12039,7 +11994,7 @@
         <v>43313.467361111114</v>
       </c>
       <c r="N32" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
@@ -12047,13 +12002,13 @@
         <v>158</v>
       </c>
       <c r="B33" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C33">
         <v>10153</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E33" t="s">
         <v>168</v>
@@ -12062,7 +12017,7 @@
         <v>168</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H33" s="21" t="s">
         <v>161</v>
@@ -12082,13 +12037,13 @@
         <v>158</v>
       </c>
       <c r="B34" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C34">
         <v>10155</v>
       </c>
       <c r="D34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E34" t="s">
         <v>136</v>
@@ -12097,7 +12052,7 @@
         <v>136</v>
       </c>
       <c r="G34" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H34" t="s">
         <v>165</v>
@@ -12112,7 +12067,7 @@
         <v>43310.92291666667</v>
       </c>
       <c r="N34" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
@@ -12120,13 +12075,13 @@
         <v>158</v>
       </c>
       <c r="B35" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C35">
         <v>10156</v>
       </c>
       <c r="D35" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E35" t="s">
         <v>136</v>
@@ -12135,10 +12090,10 @@
         <v>136</v>
       </c>
       <c r="G35" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H35" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I35" t="s">
         <v>162</v>
@@ -12155,13 +12110,13 @@
         <v>158</v>
       </c>
       <c r="B36" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C36">
         <v>10157</v>
       </c>
       <c r="D36" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E36" t="s">
         <v>136</v>
@@ -12170,10 +12125,10 @@
         <v>136</v>
       </c>
       <c r="G36" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I36" t="s">
         <v>162</v>
@@ -12190,13 +12145,13 @@
         <v>158</v>
       </c>
       <c r="B37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C37">
         <v>10158</v>
       </c>
       <c r="D37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E37" t="s">
         <v>136</v>
@@ -12205,10 +12160,10 @@
         <v>136</v>
       </c>
       <c r="G37" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H37" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I37" t="s">
         <v>162</v>
@@ -12225,13 +12180,13 @@
         <v>158</v>
       </c>
       <c r="B38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C38">
         <v>10159</v>
       </c>
       <c r="D38" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E38" t="s">
         <v>168</v>
@@ -12240,7 +12195,7 @@
         <v>195</v>
       </c>
       <c r="G38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H38" t="s">
         <v>165</v>
@@ -12255,7 +12210,7 @@
         <v>43311.916666666664</v>
       </c>
       <c r="N38" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
@@ -12263,13 +12218,13 @@
         <v>158</v>
       </c>
       <c r="B39" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C39">
         <v>10160</v>
       </c>
       <c r="D39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E39" t="s">
         <v>168</v>
@@ -12278,7 +12233,7 @@
         <v>195</v>
       </c>
       <c r="G39" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H39" t="s">
         <v>165</v>
@@ -12293,7 +12248,7 @@
         <v>43313.6875</v>
       </c>
       <c r="N39" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
@@ -12301,13 +12256,13 @@
         <v>158</v>
       </c>
       <c r="B40" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C40">
         <v>10161</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E40" t="s">
         <v>136</v>
@@ -12316,7 +12271,7 @@
         <v>136</v>
       </c>
       <c r="G40" s="21" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H40" t="s">
         <v>161</v>
@@ -12336,13 +12291,13 @@
         <v>158</v>
       </c>
       <c r="B41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C41">
         <v>10162</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E41" t="s">
         <v>136</v>
@@ -12351,7 +12306,7 @@
         <v>136</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H41" t="s">
         <v>161</v>
@@ -12371,13 +12326,13 @@
         <v>158</v>
       </c>
       <c r="B42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C42">
         <v>10164</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E42" t="s">
         <v>168</v>
@@ -12386,7 +12341,7 @@
         <v>168</v>
       </c>
       <c r="G42" s="21" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H42" t="s">
         <v>161</v>
@@ -12406,13 +12361,13 @@
         <v>158</v>
       </c>
       <c r="B43" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C43">
         <v>10165</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E43" t="s">
         <v>168</v>
@@ -12421,7 +12376,7 @@
         <v>168</v>
       </c>
       <c r="G43" s="21" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H43" t="s">
         <v>161</v>
@@ -12441,13 +12396,13 @@
         <v>158</v>
       </c>
       <c r="B44" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C44">
         <v>10166</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E44" t="s">
         <v>168</v>
@@ -12456,7 +12411,7 @@
         <v>168</v>
       </c>
       <c r="G44" s="21" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H44" t="s">
         <v>161</v>
@@ -12476,13 +12431,13 @@
         <v>158</v>
       </c>
       <c r="B45" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C45">
         <v>10174</v>
       </c>
       <c r="D45" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E45" t="s">
         <v>195</v>
@@ -12491,7 +12446,7 @@
         <v>195</v>
       </c>
       <c r="G45" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H45" t="s">
         <v>165</v>
@@ -12506,7 +12461,7 @@
         <v>43313.686805555553</v>
       </c>
       <c r="N45" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
@@ -12514,13 +12469,13 @@
         <v>158</v>
       </c>
       <c r="B46" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C46">
         <v>10175</v>
       </c>
       <c r="D46" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E46" t="s">
         <v>172</v>
@@ -12529,7 +12484,7 @@
         <v>195</v>
       </c>
       <c r="G46" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H46" t="s">
         <v>165</v>
@@ -12544,7 +12499,7 @@
         <v>43313.686111111114</v>
       </c>
       <c r="N46" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
@@ -12552,13 +12507,13 @@
         <v>158</v>
       </c>
       <c r="B47" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C47">
         <v>10177</v>
       </c>
       <c r="D47" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E47" t="s">
         <v>172</v>
@@ -12567,7 +12522,7 @@
         <v>195</v>
       </c>
       <c r="G47" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H47" t="s">
         <v>165</v>
@@ -12579,7 +12534,7 @@
         <v>43313.686111111114</v>
       </c>
       <c r="N47" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
@@ -12587,13 +12542,13 @@
         <v>158</v>
       </c>
       <c r="B48" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C48">
         <v>10178</v>
       </c>
       <c r="D48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E48" t="s">
         <v>172</v>
@@ -12602,7 +12557,7 @@
         <v>195</v>
       </c>
       <c r="G48" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H48" t="s">
         <v>165</v>
@@ -12617,7 +12572,7 @@
         <v>43313.685416666667</v>
       </c>
       <c r="N48" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
@@ -12625,13 +12580,13 @@
         <v>158</v>
       </c>
       <c r="B49" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C49">
         <v>10181</v>
       </c>
       <c r="D49" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E49" t="s">
         <v>136</v>
@@ -12640,7 +12595,7 @@
         <v>195</v>
       </c>
       <c r="G49" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H49" t="s">
         <v>165</v>
@@ -12655,7 +12610,7 @@
         <v>43313.685416666667</v>
       </c>
       <c r="N49" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
@@ -12663,13 +12618,13 @@
         <v>158</v>
       </c>
       <c r="B50" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C50">
         <v>10182</v>
       </c>
       <c r="D50" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E50" t="s">
         <v>172</v>
@@ -12678,7 +12633,7 @@
         <v>195</v>
       </c>
       <c r="G50" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H50" t="s">
         <v>165</v>
@@ -12693,7 +12648,7 @@
         <v>43313.542361111111</v>
       </c>
       <c r="N50" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
@@ -12701,13 +12656,13 @@
         <v>158</v>
       </c>
       <c r="B51" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C51">
         <v>10183</v>
       </c>
       <c r="D51" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E51" t="s">
         <v>172</v>
@@ -12716,7 +12671,7 @@
         <v>195</v>
       </c>
       <c r="G51" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H51" t="s">
         <v>165</v>
@@ -12728,7 +12683,7 @@
         <v>43313.544444444444</v>
       </c>
       <c r="N51" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
@@ -12736,13 +12691,13 @@
         <v>158</v>
       </c>
       <c r="B52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C52">
         <v>10184</v>
       </c>
       <c r="D52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E52" t="s">
         <v>172</v>
@@ -12751,7 +12706,7 @@
         <v>195</v>
       </c>
       <c r="G52" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H52" t="s">
         <v>165</v>
@@ -12763,7 +12718,7 @@
         <v>43313.488888888889</v>
       </c>
       <c r="N52" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
@@ -12771,13 +12726,13 @@
         <v>158</v>
       </c>
       <c r="B53" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C53">
         <v>10185</v>
       </c>
       <c r="D53" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E53" t="s">
         <v>172</v>
@@ -12786,7 +12741,7 @@
         <v>195</v>
       </c>
       <c r="G53" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H53" t="s">
         <v>165</v>
@@ -12798,7 +12753,7 @@
         <v>43313.545138888891</v>
       </c>
       <c r="N53" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
@@ -12806,13 +12761,13 @@
         <v>158</v>
       </c>
       <c r="B54" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C54">
         <v>10186</v>
       </c>
       <c r="D54" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E54" t="s">
         <v>172</v>
@@ -12821,7 +12776,7 @@
         <v>195</v>
       </c>
       <c r="G54" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H54" t="s">
         <v>165</v>
@@ -12833,7 +12788,7 @@
         <v>43313.365277777775</v>
       </c>
       <c r="N54" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
@@ -12841,13 +12796,13 @@
         <v>158</v>
       </c>
       <c r="B55" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C55">
         <v>10187</v>
       </c>
       <c r="D55" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -12856,7 +12811,7 @@
         <v>195</v>
       </c>
       <c r="G55" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H55" t="s">
         <v>165</v>
@@ -12868,7 +12823,7 @@
         <v>43313.368055555555</v>
       </c>
       <c r="N55" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
@@ -12876,13 +12831,13 @@
         <v>158</v>
       </c>
       <c r="B56" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C56">
         <v>10188</v>
       </c>
       <c r="D56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E56" t="s">
         <v>172</v>
@@ -12891,7 +12846,7 @@
         <v>195</v>
       </c>
       <c r="G56" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H56" t="s">
         <v>165</v>
@@ -12903,7 +12858,7 @@
         <v>43313.371527777781</v>
       </c>
       <c r="N56" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
@@ -12926,7 +12881,7 @@
         <v>195</v>
       </c>
       <c r="G57" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H57" t="s">
         <v>165</v>
@@ -12941,7 +12896,7 @@
         <v>43309.459027777775</v>
       </c>
       <c r="N57" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
@@ -12949,13 +12904,13 @@
         <v>158</v>
       </c>
       <c r="B58" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C58">
         <v>10189</v>
       </c>
       <c r="D58" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E58" t="s">
         <v>172</v>
@@ -12964,7 +12919,7 @@
         <v>195</v>
       </c>
       <c r="G58" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H58" t="s">
         <v>165</v>
@@ -12976,7 +12931,7 @@
         <v>43313.373611111114</v>
       </c>
       <c r="N58" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
@@ -12984,13 +12939,13 @@
         <v>158</v>
       </c>
       <c r="B59" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C59">
         <v>10190</v>
       </c>
       <c r="D59" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E59" t="s">
         <v>172</v>
@@ -12999,7 +12954,7 @@
         <v>195</v>
       </c>
       <c r="G59" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H59" t="s">
         <v>165</v>
@@ -13011,7 +12966,7 @@
         <v>43313.46875</v>
       </c>
       <c r="N59" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
@@ -13019,13 +12974,13 @@
         <v>158</v>
       </c>
       <c r="B60" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C60">
         <v>10191</v>
       </c>
       <c r="D60" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E60" t="s">
         <v>172</v>
@@ -13034,7 +12989,7 @@
         <v>195</v>
       </c>
       <c r="G60" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H60" t="s">
         <v>165</v>
@@ -13046,7 +13001,7 @@
         <v>43313.46875</v>
       </c>
       <c r="N60" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
@@ -13054,13 +13009,13 @@
         <v>158</v>
       </c>
       <c r="B61" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C61">
         <v>10192</v>
       </c>
       <c r="D61" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E61" t="s">
         <v>172</v>
@@ -13069,7 +13024,7 @@
         <v>195</v>
       </c>
       <c r="G61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H61" t="s">
         <v>165</v>
@@ -13081,7 +13036,7 @@
         <v>43313.46875</v>
       </c>
       <c r="N61" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
@@ -13089,13 +13044,13 @@
         <v>158</v>
       </c>
       <c r="B62" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C62">
         <v>10193</v>
       </c>
       <c r="D62" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E62" t="s">
         <v>136</v>
@@ -13104,7 +13059,7 @@
         <v>195</v>
       </c>
       <c r="G62" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H62" t="s">
         <v>165</v>
@@ -13116,7 +13071,7 @@
         <v>43313.68472222222</v>
       </c>
       <c r="N62" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
@@ -13124,13 +13079,13 @@
         <v>158</v>
       </c>
       <c r="B63" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C63">
         <v>10194</v>
       </c>
       <c r="D63" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E63" t="s">
         <v>136</v>
@@ -13154,7 +13109,7 @@
         <v>43313.684027777781</v>
       </c>
       <c r="N63" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
@@ -13162,13 +13117,13 @@
         <v>158</v>
       </c>
       <c r="B64" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C64">
         <v>10195</v>
       </c>
       <c r="D64" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E64" t="s">
         <v>168</v>
@@ -13177,7 +13132,7 @@
         <v>168</v>
       </c>
       <c r="G64" s="21" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H64" t="s">
         <v>161</v>
@@ -13197,13 +13152,13 @@
         <v>158</v>
       </c>
       <c r="B65" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C65">
         <v>10196</v>
       </c>
       <c r="D65" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E65" t="s">
         <v>136</v>
@@ -13212,7 +13167,7 @@
         <v>195</v>
       </c>
       <c r="G65" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H65" t="s">
         <v>165</v>
@@ -13224,7 +13179,7 @@
         <v>43313.628472222219</v>
       </c>
       <c r="N65" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
@@ -13232,13 +13187,13 @@
         <v>158</v>
       </c>
       <c r="B66" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C66">
         <v>10197</v>
       </c>
       <c r="D66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E66" t="s">
         <v>136</v>
@@ -13247,7 +13202,7 @@
         <v>195</v>
       </c>
       <c r="G66" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H66" t="s">
         <v>165</v>
@@ -13262,7 +13217,7 @@
         <v>43313.68472222222</v>
       </c>
       <c r="N66" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
@@ -13270,13 +13225,13 @@
         <v>158</v>
       </c>
       <c r="B67" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C67">
         <v>10198</v>
       </c>
       <c r="D67" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E67" t="s">
         <v>136</v>
@@ -13285,7 +13240,7 @@
         <v>195</v>
       </c>
       <c r="G67" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H67" t="s">
         <v>165</v>
@@ -13297,7 +13252,7 @@
         <v>43313.68472222222</v>
       </c>
       <c r="N67" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
@@ -13320,7 +13275,7 @@
         <v>195</v>
       </c>
       <c r="G68" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H68" t="s">
         <v>165</v>
@@ -13335,7 +13290,7 @@
         <v>43313.692361111112</v>
       </c>
       <c r="N68" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -13343,13 +13298,13 @@
         <v>158</v>
       </c>
       <c r="B69" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C69">
         <v>10199</v>
       </c>
       <c r="D69" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E69" t="s">
         <v>195</v>
@@ -13373,7 +13328,7 @@
         <v>43313.68472222222</v>
       </c>
       <c r="N69" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -13381,13 +13336,13 @@
         <v>158</v>
       </c>
       <c r="B70" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C70">
         <v>10200</v>
       </c>
       <c r="D70" s="22" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E70" t="s">
         <v>136</v>
@@ -13396,7 +13351,7 @@
         <v>195</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>165</v>
@@ -13408,7 +13363,7 @@
         <v>43313.8</v>
       </c>
       <c r="N70" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -13416,13 +13371,13 @@
         <v>158</v>
       </c>
       <c r="B71" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C71">
         <v>10201</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E71" t="s">
         <v>168</v>
@@ -13431,7 +13386,7 @@
         <v>195</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>165</v>
@@ -13443,7 +13398,7 @@
         <v>43313.820138888892</v>
       </c>
       <c r="N71" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -13451,13 +13406,13 @@
         <v>158</v>
       </c>
       <c r="B72" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C72">
         <v>10202</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E72" t="s">
         <v>168</v>
@@ -13466,7 +13421,7 @@
         <v>195</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>165</v>
@@ -13478,7 +13433,7 @@
         <v>43313.831250000003</v>
       </c>
       <c r="N72" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
@@ -13501,7 +13456,7 @@
         <v>195</v>
       </c>
       <c r="G73" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H73" t="s">
         <v>165</v>
@@ -13516,7 +13471,7 @@
         <v>43309.455555555556</v>
       </c>
       <c r="N73" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
@@ -13539,7 +13494,7 @@
         <v>195</v>
       </c>
       <c r="G74" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H74" t="s">
         <v>165</v>
@@ -13554,7 +13509,7 @@
         <v>43309.456944444442</v>
       </c>
       <c r="N74" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
@@ -13577,7 +13532,7 @@
         <v>195</v>
       </c>
       <c r="G75" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H75" t="s">
         <v>165</v>
@@ -13592,7 +13547,7 @@
         <v>43313.692361111112</v>
       </c>
       <c r="N75" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
@@ -13615,7 +13570,7 @@
         <v>195</v>
       </c>
       <c r="G76" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H76" t="s">
         <v>165</v>
@@ -13630,7 +13585,7 @@
         <v>43309.459722222222</v>
       </c>
       <c r="N76" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
@@ -13668,7 +13623,7 @@
         <v>43309.460416666669</v>
       </c>
       <c r="N77" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
@@ -13706,7 +13661,7 @@
         <v>43313.691666666666</v>
       </c>
       <c r="N78" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
@@ -13744,7 +13699,7 @@
         <v>43313.691666666666</v>
       </c>
       <c r="N79" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
@@ -13782,7 +13737,7 @@
         <v>43313.691666666666</v>
       </c>
       <c r="N80" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="81" spans="1:35" x14ac:dyDescent="0.3">
@@ -13820,7 +13775,7 @@
         <v>43313.691666666666</v>
       </c>
       <c r="N81" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="82" spans="1:35" x14ac:dyDescent="0.3">
@@ -13843,7 +13798,7 @@
         <v>195</v>
       </c>
       <c r="G82" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H82" t="s">
         <v>165</v>
@@ -13858,7 +13813,7 @@
         <v>43309.694444444445</v>
       </c>
       <c r="N82" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="83" spans="1:35" x14ac:dyDescent="0.3">
@@ -13881,7 +13836,7 @@
         <v>195</v>
       </c>
       <c r="G83" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H83" t="s">
         <v>165</v>
@@ -13897,7 +13852,7 @@
       </c>
       <c r="M83" s="23"/>
       <c r="N83" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O83" s="23"/>
       <c r="P83" s="23"/>
@@ -13941,7 +13896,7 @@
         <v>195</v>
       </c>
       <c r="G84" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H84" t="s">
         <v>165</v>
@@ -13957,7 +13912,7 @@
       </c>
       <c r="M84" s="23"/>
       <c r="N84" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O84" s="23"/>
       <c r="P84" s="23"/>
@@ -14001,7 +13956,7 @@
         <v>195</v>
       </c>
       <c r="G85" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H85" t="s">
         <v>165</v>
@@ -14017,7 +13972,7 @@
       </c>
       <c r="M85" s="23"/>
       <c r="N85" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O85" s="23"/>
       <c r="P85" s="23"/>
@@ -14061,7 +14016,7 @@
         <v>195</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>165</v>
@@ -14078,7 +14033,7 @@
       <c r="L86"/>
       <c r="M86" s="23"/>
       <c r="N86" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="O86" s="23"/>
       <c r="P86" s="23"/>
@@ -14119,13 +14074,13 @@
         <v>136</v>
       </c>
       <c r="F87" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="H87" s="3" t="s">
         <v>315</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>316</v>
       </c>
       <c r="I87" t="s">
         <v>162</v>
@@ -14181,7 +14136,7 @@
         <v>136</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>206</v>
@@ -14240,7 +14195,7 @@
         <v>136</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>206</v>
@@ -14299,7 +14254,7 @@
         <v>136</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>206</v>
@@ -14358,7 +14313,7 @@
         <v>168</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>165</v>
@@ -14375,7 +14330,7 @@
       <c r="L91"/>
       <c r="M91" s="23"/>
       <c r="N91" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="O91" s="23"/>
       <c r="P91" s="23"/>
@@ -14419,7 +14374,7 @@
         <v>168</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>165</v>
@@ -14436,7 +14391,7 @@
       <c r="L92"/>
       <c r="M92" s="23"/>
       <c r="N92" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="O92" s="23"/>
       <c r="P92" s="23"/>
@@ -14480,7 +14435,7 @@
         <v>136</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>206</v>
@@ -14524,13 +14479,13 @@
         <v>158</v>
       </c>
       <c r="B94" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C94">
         <v>10084</v>
       </c>
       <c r="D94" s="21" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E94" t="s">
         <v>136</v>
@@ -14539,7 +14494,7 @@
         <v>195</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>165</v>
@@ -14556,7 +14511,7 @@
       <c r="L94"/>
       <c r="M94" s="23"/>
       <c r="N94" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="O94" s="23"/>
       <c r="P94" s="23"/>
@@ -14585,13 +14540,13 @@
         <v>158</v>
       </c>
       <c r="B95" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C95">
         <v>10085</v>
       </c>
       <c r="D95" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E95" t="s">
         <v>136</v>
@@ -14600,7 +14555,7 @@
         <v>168</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>206</v>
@@ -14644,13 +14599,13 @@
         <v>158</v>
       </c>
       <c r="B96" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C96">
         <v>10086</v>
       </c>
       <c r="D96" s="21" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E96" t="s">
         <v>168</v>
@@ -14659,7 +14614,7 @@
         <v>168</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>165</v>
@@ -14676,7 +14631,7 @@
       <c r="L96"/>
       <c r="M96" s="23"/>
       <c r="N96" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O96" s="23"/>
       <c r="P96" s="23"/>
@@ -14705,22 +14660,22 @@
         <v>158</v>
       </c>
       <c r="B97" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C97">
         <v>10089</v>
       </c>
       <c r="D97" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E97" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>195</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H97" s="3" t="s">
         <v>165</v>
@@ -14735,7 +14690,7 @@
       <c r="L97"/>
       <c r="M97" s="23"/>
       <c r="N97" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O97" s="23"/>
       <c r="P97" s="23"/>
@@ -14764,25 +14719,25 @@
         <v>158</v>
       </c>
       <c r="B98" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C98">
         <v>10090</v>
       </c>
       <c r="D98" s="21" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E98" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I98"/>
       <c r="J98" s="4">
@@ -14821,13 +14776,13 @@
         <v>158</v>
       </c>
       <c r="B99" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C99">
         <v>10092</v>
       </c>
       <c r="D99" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E99" t="s">
         <v>172</v>
@@ -14836,7 +14791,7 @@
         <v>172</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>206</v>
@@ -14886,7 +14841,7 @@
         <v>215</v>
       </c>
       <c r="H100" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M100" s="23"/>
       <c r="N100" s="23"/>
@@ -14923,7 +14878,7 @@
         <v>215</v>
       </c>
       <c r="H101" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M101" s="23"/>
       <c r="N101" s="23"/>
@@ -14960,7 +14915,7 @@
         <v>215</v>
       </c>
       <c r="H102" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M102" s="23"/>
       <c r="N102" s="23"/>
@@ -14997,7 +14952,7 @@
         <v>215</v>
       </c>
       <c r="H103" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M103" s="23"/>
       <c r="N103" s="23"/>
@@ -15034,7 +14989,7 @@
         <v>214</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="105" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15048,7 +15003,7 @@
         <v>215</v>
       </c>
       <c r="H105" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="106" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15062,7 +15017,7 @@
         <v>214</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="107" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15076,7 +15031,7 @@
         <v>214</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="108" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15090,7 +15045,7 @@
         <v>215</v>
       </c>
       <c r="H108" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="109" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15104,7 +15059,7 @@
         <v>215</v>
       </c>
       <c r="H109" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="110" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15118,7 +15073,7 @@
         <v>215</v>
       </c>
       <c r="H110" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="111" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15132,7 +15087,7 @@
         <v>145</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="112" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15146,7 +15101,7 @@
         <v>145</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15160,7 +15115,7 @@
         <v>145</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15174,7 +15129,7 @@
         <v>215</v>
       </c>
       <c r="H114" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15189,7 +15144,7 @@
         <v>215</v>
       </c>
       <c r="H115" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15204,7 +15159,7 @@
         <v>215</v>
       </c>
       <c r="H116" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15219,7 +15174,7 @@
         <v>215</v>
       </c>
       <c r="H117" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15233,7 +15188,7 @@
         <v>214</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15247,26 +15202,26 @@
         <v>215</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="7" t="s">
-        <v>20</v>
+        <v>218</v>
       </c>
       <c r="D120" s="9" t="s">
         <v>19</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D121" s="7" t="s">
         <v>21</v>
@@ -15275,7 +15230,7 @@
         <v>215</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15289,7 +15244,7 @@
         <v>214</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15304,7 +15259,7 @@
         <v>215</v>
       </c>
       <c r="H123" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15319,7 +15274,7 @@
         <v>215</v>
       </c>
       <c r="H124" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15334,7 +15289,7 @@
         <v>215</v>
       </c>
       <c r="H125" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15349,7 +15304,7 @@
         <v>215</v>
       </c>
       <c r="H126" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15364,7 +15319,7 @@
         <v>215</v>
       </c>
       <c r="H127" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15378,7 +15333,7 @@
         <v>214</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15393,7 +15348,7 @@
         <v>215</v>
       </c>
       <c r="H129" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15407,7 +15362,7 @@
         <v>214</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15422,7 +15377,7 @@
         <v>215</v>
       </c>
       <c r="H131" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15436,7 +15391,7 @@
         <v>214</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15450,7 +15405,7 @@
         <v>215</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15465,7 +15420,7 @@
         <v>215</v>
       </c>
       <c r="H134" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15480,7 +15435,7 @@
         <v>215</v>
       </c>
       <c r="H135" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15495,7 +15450,7 @@
         <v>215</v>
       </c>
       <c r="H136" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15510,7 +15465,7 @@
         <v>215</v>
       </c>
       <c r="H137" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15524,7 +15479,7 @@
         <v>215</v>
       </c>
       <c r="H138" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15538,7 +15493,7 @@
         <v>215</v>
       </c>
       <c r="H139" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15552,7 +15507,7 @@
         <v>215</v>
       </c>
       <c r="H140" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15566,7 +15521,7 @@
         <v>215</v>
       </c>
       <c r="H141" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15580,7 +15535,7 @@
         <v>215</v>
       </c>
       <c r="H142" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15594,7 +15549,7 @@
         <v>215</v>
       </c>
       <c r="H143" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15608,7 +15563,7 @@
         <v>215</v>
       </c>
       <c r="H144" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15622,7 +15577,7 @@
         <v>215</v>
       </c>
       <c r="H145" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15636,7 +15591,7 @@
         <v>215</v>
       </c>
       <c r="H146" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15650,7 +15605,7 @@
         <v>215</v>
       </c>
       <c r="H147" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15664,7 +15619,7 @@
         <v>215</v>
       </c>
       <c r="H148" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15678,7 +15633,7 @@
         <v>215</v>
       </c>
       <c r="H149" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15692,7 +15647,7 @@
         <v>215</v>
       </c>
       <c r="H150" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15706,7 +15661,7 @@
         <v>215</v>
       </c>
       <c r="H151" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15720,7 +15675,7 @@
         <v>215</v>
       </c>
       <c r="H152" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15734,7 +15689,7 @@
         <v>215</v>
       </c>
       <c r="H153" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15748,7 +15703,7 @@
         <v>215</v>
       </c>
       <c r="H154" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15762,7 +15717,7 @@
         <v>215</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15776,7 +15731,7 @@
         <v>215</v>
       </c>
       <c r="H156" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15790,7 +15745,7 @@
         <v>215</v>
       </c>
       <c r="H157" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15804,7 +15759,7 @@
         <v>215</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15818,7 +15773,7 @@
         <v>215</v>
       </c>
       <c r="H159" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15832,7 +15787,7 @@
         <v>215</v>
       </c>
       <c r="H160" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15846,7 +15801,7 @@
         <v>214</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15860,7 +15815,7 @@
         <v>215</v>
       </c>
       <c r="H162" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15874,7 +15829,7 @@
         <v>215</v>
       </c>
       <c r="H163" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15888,12 +15843,12 @@
         <v>215</v>
       </c>
       <c r="H164" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D165" s="7" t="s">
         <v>75</v>
@@ -15902,7 +15857,7 @@
         <v>215</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15916,7 +15871,7 @@
         <v>215</v>
       </c>
       <c r="H166" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15930,7 +15885,7 @@
         <v>215</v>
       </c>
       <c r="H167" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15944,7 +15899,7 @@
         <v>215</v>
       </c>
       <c r="H168" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15958,7 +15913,7 @@
         <v>215</v>
       </c>
       <c r="H169" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15972,7 +15927,7 @@
         <v>215</v>
       </c>
       <c r="H170" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15986,7 +15941,7 @@
         <v>215</v>
       </c>
       <c r="H171" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16000,7 +15955,7 @@
         <v>215</v>
       </c>
       <c r="H172" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16014,7 +15969,7 @@
         <v>215</v>
       </c>
       <c r="H173" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16028,7 +15983,7 @@
         <v>215</v>
       </c>
       <c r="H174" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16042,7 +15997,7 @@
         <v>215</v>
       </c>
       <c r="H175" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16056,7 +16011,7 @@
         <v>215</v>
       </c>
       <c r="H176" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16070,7 +16025,7 @@
         <v>215</v>
       </c>
       <c r="H177" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16084,7 +16039,7 @@
         <v>215</v>
       </c>
       <c r="H178" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16098,7 +16053,7 @@
         <v>215</v>
       </c>
       <c r="H179" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16112,7 +16067,7 @@
         <v>215</v>
       </c>
       <c r="H180" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16126,7 +16081,7 @@
         <v>215</v>
       </c>
       <c r="H181" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16140,7 +16095,7 @@
         <v>215</v>
       </c>
       <c r="H182" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16154,7 +16109,7 @@
         <v>215</v>
       </c>
       <c r="H183" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16168,7 +16123,7 @@
         <v>215</v>
       </c>
       <c r="H184" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16182,7 +16137,7 @@
         <v>215</v>
       </c>
       <c r="H185" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16196,7 +16151,7 @@
         <v>215</v>
       </c>
       <c r="H186" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16210,7 +16165,7 @@
         <v>215</v>
       </c>
       <c r="H187" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16224,7 +16179,7 @@
         <v>215</v>
       </c>
       <c r="H188" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16238,7 +16193,7 @@
         <v>215</v>
       </c>
       <c r="H189" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16252,7 +16207,7 @@
         <v>215</v>
       </c>
       <c r="H190" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16266,7 +16221,7 @@
         <v>215</v>
       </c>
       <c r="H191" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16280,7 +16235,7 @@
         <v>215</v>
       </c>
       <c r="H192" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16294,7 +16249,7 @@
         <v>214</v>
       </c>
       <c r="H193" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16308,7 +16263,7 @@
         <v>214</v>
       </c>
       <c r="H194" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16322,7 +16277,7 @@
         <v>215</v>
       </c>
       <c r="H195" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16336,7 +16291,7 @@
         <v>215</v>
       </c>
       <c r="H196" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16350,7 +16305,7 @@
         <v>215</v>
       </c>
       <c r="H197" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16364,7 +16319,7 @@
         <v>215</v>
       </c>
       <c r="H198" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16378,7 +16333,7 @@
         <v>215</v>
       </c>
       <c r="H199" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16392,7 +16347,7 @@
         <v>215</v>
       </c>
       <c r="H200" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -16406,7 +16361,7 @@
         <v>215</v>
       </c>
       <c r="H201" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -16420,7 +16375,7 @@
         <v>215</v>
       </c>
       <c r="H202" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16434,7 +16389,7 @@
         <v>215</v>
       </c>
       <c r="H203" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16448,7 +16403,7 @@
         <v>215</v>
       </c>
       <c r="H204" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16462,7 +16417,7 @@
         <v>215</v>
       </c>
       <c r="H205" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16476,7 +16431,7 @@
         <v>215</v>
       </c>
       <c r="H206" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16490,7 +16445,7 @@
         <v>215</v>
       </c>
       <c r="H207" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16504,7 +16459,7 @@
         <v>215</v>
       </c>
       <c r="H208" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16518,7 +16473,7 @@
         <v>215</v>
       </c>
       <c r="H209" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -19791,29 +19746,29 @@
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>395</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C4" t="s">
         <v>397</v>
       </c>
-      <c r="C4" t="s">
-        <v>398</v>
-      </c>
       <c r="D4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B5" s="13">
         <v>1</v>
@@ -19825,7 +19780,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B6" s="13">
         <v>11</v>
@@ -19839,7 +19794,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B7" s="13">
         <v>10</v>
@@ -19853,7 +19808,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B8" s="13">
         <v>22</v>
@@ -19875,8 +19830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J119"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:I113"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19911,10 +19866,10 @@
         <v>216</v>
       </c>
       <c r="H3" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="I3" s="17" t="s">
         <v>392</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -20038,7 +19993,7 @@
         <v>7</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>217</v>
+        <v>375</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>214</v>
@@ -20116,7 +20071,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>217</v>
+        <v>375</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>214</v>
@@ -20168,7 +20123,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>215</v>
@@ -20298,7 +20253,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>215</v>
@@ -20454,10 +20409,10 @@
         <v>19</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>20</v>
+        <v>218</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>213</v>
@@ -20480,7 +20435,7 @@
         <v>21</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>215</v>
@@ -20506,7 +20461,7 @@
         <v>24</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>217</v>
+        <v>375</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>214</v>
@@ -20584,10 +20539,10 @@
         <v>27</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>0</v>
@@ -20639,7 +20594,7 @@
         <v>30</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>0</v>
@@ -20662,7 +20617,7 @@
         <v>31</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>217</v>
+        <v>375</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>214</v>
@@ -20714,7 +20669,7 @@
         <v>31</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>217</v>
+        <v>375</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>214</v>
@@ -20766,7 +20721,7 @@
         <v>34</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>217</v>
+        <v>375</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>214</v>
@@ -20847,7 +20802,7 @@
         <v>11</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>0</v>
@@ -21560,10 +21515,10 @@
         <v>64</v>
       </c>
       <c r="C67" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D67" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>70</v>
@@ -21575,7 +21530,7 @@
         <v>18</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>0</v>
@@ -21586,10 +21541,10 @@
         <v>65</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>72</v>
@@ -21612,10 +21567,10 @@
         <v>66</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>74</v>
@@ -21624,7 +21579,7 @@
         <v>75</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>215</v>
@@ -21638,10 +21593,10 @@
         <v>67</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>76</v>
@@ -21650,7 +21605,7 @@
         <v>77</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>215</v>
@@ -21664,10 +21619,10 @@
         <v>68</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>79</v>
@@ -21690,10 +21645,10 @@
         <v>69</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>81</v>
@@ -21716,7 +21671,7 @@
         <v>70</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>82</v>
@@ -21742,7 +21697,7 @@
         <v>71</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>83</v>
@@ -21757,7 +21712,7 @@
         <v>18</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>0</v>
@@ -21768,7 +21723,7 @@
         <v>72</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>84</v>
@@ -21794,7 +21749,7 @@
         <v>73</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>86</v>
@@ -21820,7 +21775,7 @@
         <v>74</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>89</v>
@@ -21846,7 +21801,7 @@
         <v>75</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>90</v>
@@ -21872,10 +21827,10 @@
         <v>76</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>91</v>
@@ -21898,7 +21853,7 @@
         <v>77</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>93</v>
@@ -21924,7 +21879,7 @@
         <v>78</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>95</v>
@@ -21950,7 +21905,7 @@
         <v>79</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>96</v>
@@ -21976,7 +21931,7 @@
         <v>80</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>97</v>
@@ -22002,7 +21957,7 @@
         <v>81</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>98</v>
@@ -22028,7 +21983,7 @@
         <v>82</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>99</v>
@@ -22352,7 +22307,7 @@
         <v>112</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>217</v>
+        <v>375</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>214</v>
@@ -22378,7 +22333,7 @@
         <v>113</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>217</v>
+        <v>375</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>214</v>
@@ -22615,7 +22570,7 @@
         <v>18</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I107" s="2" t="s">
         <v>0</v>
@@ -22800,7 +22755,9 @@
       <c r="H119" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="B3:J3"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/defect_category_2.xlsx
+++ b/defect_category_2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\share_doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SDET_CODE\share_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18885" windowHeight="8580" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18885" windowHeight="8580" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="15" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2844" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2847" uniqueCount="470">
   <si>
     <t>SonarQube</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1497,6 +1497,18 @@
   </si>
   <si>
     <t>covered TC ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Critical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Major</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1920,11 +1932,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="106980040"/>
-        <c:axId val="106980424"/>
+        <c:axId val="135489512"/>
+        <c:axId val="135489904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="106980040"/>
+        <c:axId val="135489512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1967,7 +1979,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106980424"/>
+        <c:crossAx val="135489904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1975,7 +1987,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106980424"/>
+        <c:axId val="135489904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2026,7 +2038,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106980040"/>
+        <c:crossAx val="135489512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2165,11 +2177,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="270956152"/>
-        <c:axId val="271072840"/>
+        <c:axId val="212942904"/>
+        <c:axId val="212943296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="270956152"/>
+        <c:axId val="212942904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2212,7 +2224,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="271072840"/>
+        <c:crossAx val="212943296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2220,7 +2232,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="271072840"/>
+        <c:axId val="212943296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2271,7 +2283,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="270956152"/>
+        <c:crossAx val="212942904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2731,11 +2743,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="271122120"/>
-        <c:axId val="271073840"/>
+        <c:axId val="212944080"/>
+        <c:axId val="212944472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="271122120"/>
+        <c:axId val="212944080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2775,7 +2787,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="271073840"/>
+        <c:crossAx val="212944472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2783,7 +2795,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="271073840"/>
+        <c:axId val="212944472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2834,7 +2846,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="271122120"/>
+        <c:crossAx val="212944080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3552,11 +3564,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="271887656"/>
-        <c:axId val="271915112"/>
+        <c:axId val="212945256"/>
+        <c:axId val="212945648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="271887656"/>
+        <c:axId val="212945256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3599,7 +3611,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="271915112"/>
+        <c:crossAx val="212945648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3607,7 +3619,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="271915112"/>
+        <c:axId val="212945648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3658,7 +3670,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="271887656"/>
+        <c:crossAx val="212945256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3839,11 +3851,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="271857568"/>
-        <c:axId val="271605096"/>
+        <c:axId val="213137096"/>
+        <c:axId val="213137488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="271857568"/>
+        <c:axId val="213137096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3883,7 +3895,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="271605096"/>
+        <c:crossAx val="213137488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3891,7 +3903,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="271605096"/>
+        <c:axId val="213137488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3942,7 +3954,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="271857568"/>
+        <c:crossAx val="213137096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4086,7 +4098,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4145,11 +4156,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="171268480"/>
-        <c:axId val="271727528"/>
+        <c:axId val="213140232"/>
+        <c:axId val="213140624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="171268480"/>
+        <c:axId val="213140232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4192,7 +4203,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="271727528"/>
+        <c:crossAx val="213140624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4200,7 +4211,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="271727528"/>
+        <c:axId val="213140624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4251,7 +4262,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171268480"/>
+        <c:crossAx val="213140232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10698,10 +10709,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10808,6 +10819,30 @@
         <v>89</v>
       </c>
     </row>
+    <row r="51" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E51" t="s">
+        <v>467</v>
+      </c>
+      <c r="F51">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E52" t="s">
+        <v>468</v>
+      </c>
+      <c r="F52">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E53" t="s">
+        <v>469</v>
+      </c>
+      <c r="F53">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10819,7 +10854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A109" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F134" sqref="F134"/>
     </sheetView>
   </sheetViews>
